--- a/matlab/char02-double.xlsx
+++ b/matlab/char02-double.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\HXC-Files-Aaron9065\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron Shen\learngit\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7C83FEAD-282D-400D-8F44-D8F405D9C581}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FBEA7659-FC11-49B0-9A8F-E07620F2107B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBDC7E-55A3-4F47-8814-1171120889AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" tabRatio="808" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01记录-ori -Aa" sheetId="8" r:id="rId1"/>
@@ -14647,23 +14647,23 @@
   <dimension ref="A1:BG200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH106" sqref="AH106"/>
+      <selection pane="bottomRight" activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="9" width="2.58203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="6" customWidth="1"/>
-    <col min="11" max="43" width="2.58203125" style="10" customWidth="1"/>
-    <col min="44" max="59" width="2.58203125" style="11" customWidth="1"/>
-    <col min="60" max="16384" width="2.58203125" style="2"/>
+    <col min="2" max="9" width="2.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="6" customWidth="1"/>
+    <col min="11" max="43" width="2.625" style="10" customWidth="1"/>
+    <col min="44" max="59" width="2.625" style="11" customWidth="1"/>
+    <col min="60" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -14899,7 +14899,7 @@
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
     </row>
-    <row r="3" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>18128</v>
       </c>
@@ -15044,7 +15044,7 @@
       <c r="BF3" s="18"/>
       <c r="BG3" s="18"/>
     </row>
-    <row r="4" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>18129</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>18130</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="BF5" s="18"/>
       <c r="BG5" s="18"/>
     </row>
-    <row r="6" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>18131</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="BF6" s="18"/>
       <c r="BG6" s="18"/>
     </row>
-    <row r="7" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>18132</v>
       </c>
@@ -15570,7 +15570,7 @@
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
     </row>
-    <row r="8" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>18133</v>
       </c>
@@ -15661,7 +15661,7 @@
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
     </row>
-    <row r="9" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>18134</v>
       </c>
@@ -15740,7 +15740,7 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
     </row>
-    <row r="10" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>18135</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>18136</v>
       </c>
@@ -15898,7 +15898,7 @@
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
     </row>
-    <row r="12" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>18137</v>
       </c>
@@ -15977,7 +15977,7 @@
       <c r="BF12" s="9"/>
       <c r="BG12" s="9"/>
     </row>
-    <row r="13" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18138</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="BF13" s="9"/>
       <c r="BG13" s="9"/>
     </row>
-    <row r="14" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>18139</v>
       </c>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="BG14" s="9"/>
     </row>
-    <row r="15" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>18140</v>
       </c>
@@ -16214,7 +16214,7 @@
       <c r="BF15" s="9"/>
       <c r="BG15" s="9"/>
     </row>
-    <row r="16" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>18141</v>
       </c>
@@ -16293,7 +16293,7 @@
       <c r="BF16" s="9"/>
       <c r="BG16" s="9"/>
     </row>
-    <row r="17" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>18142</v>
       </c>
@@ -16372,7 +16372,7 @@
       <c r="BF17" s="9"/>
       <c r="BG17" s="9"/>
     </row>
-    <row r="18" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18143</v>
       </c>
@@ -16451,7 +16451,7 @@
       <c r="BF18" s="9"/>
       <c r="BG18" s="9"/>
     </row>
-    <row r="19" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18144</v>
       </c>
@@ -16530,7 +16530,7 @@
       <c r="BF19" s="9"/>
       <c r="BG19" s="9"/>
     </row>
-    <row r="20" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18145</v>
       </c>
@@ -16609,7 +16609,7 @@
       <c r="BF20" s="9"/>
       <c r="BG20" s="9"/>
     </row>
-    <row r="21" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18146</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18147</v>
       </c>
@@ -16767,7 +16767,7 @@
       <c r="BF22" s="9"/>
       <c r="BG22" s="9"/>
     </row>
-    <row r="23" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>18148</v>
       </c>
@@ -16846,7 +16846,7 @@
       <c r="BF23" s="9"/>
       <c r="BG23" s="9"/>
     </row>
-    <row r="24" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>18149</v>
       </c>
@@ -16925,7 +16925,7 @@
       <c r="BF24" s="9"/>
       <c r="BG24" s="9"/>
     </row>
-    <row r="25" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>18150</v>
       </c>
@@ -17004,7 +17004,7 @@
       <c r="BF25" s="9"/>
       <c r="BG25" s="9"/>
     </row>
-    <row r="26" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>18151</v>
       </c>
@@ -17083,7 +17083,7 @@
       </c>
       <c r="BG26" s="9"/>
     </row>
-    <row r="27" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18152</v>
       </c>
@@ -17162,7 +17162,7 @@
       <c r="BF27" s="9"/>
       <c r="BG27" s="9"/>
     </row>
-    <row r="28" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>18153</v>
       </c>
@@ -17241,7 +17241,7 @@
       <c r="BF28" s="9"/>
       <c r="BG28" s="9"/>
     </row>
-    <row r="29" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>19001</v>
       </c>
@@ -17320,7 +17320,7 @@
       </c>
       <c r="BG29" s="9"/>
     </row>
-    <row r="30" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19002</v>
       </c>
@@ -17399,7 +17399,7 @@
       <c r="BF30" s="9"/>
       <c r="BG30" s="9"/>
     </row>
-    <row r="31" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>19003</v>
       </c>
@@ -17478,7 +17478,7 @@
       <c r="BF31" s="9"/>
       <c r="BG31" s="9"/>
     </row>
-    <row r="32" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>19004</v>
       </c>
@@ -17557,7 +17557,7 @@
       <c r="BF32" s="9"/>
       <c r="BG32" s="9"/>
     </row>
-    <row r="33" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>19005</v>
       </c>
@@ -17636,7 +17636,7 @@
       <c r="BF33" s="9"/>
       <c r="BG33" s="9"/>
     </row>
-    <row r="34" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>19006</v>
       </c>
@@ -17715,7 +17715,7 @@
       <c r="BF34" s="9"/>
       <c r="BG34" s="9"/>
     </row>
-    <row r="35" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>19007</v>
       </c>
@@ -17794,7 +17794,7 @@
       </c>
       <c r="BG35" s="9"/>
     </row>
-    <row r="36" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>19008</v>
       </c>
@@ -17873,7 +17873,7 @@
       <c r="BF36" s="9"/>
       <c r="BG36" s="9"/>
     </row>
-    <row r="37" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>19009</v>
       </c>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="BG37" s="9"/>
     </row>
-    <row r="38" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>19010</v>
       </c>
@@ -18031,7 +18031,7 @@
       <c r="BF38" s="9"/>
       <c r="BG38" s="9"/>
     </row>
-    <row r="39" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>19011</v>
       </c>
@@ -18110,7 +18110,7 @@
       <c r="BF39" s="9"/>
       <c r="BG39" s="9"/>
     </row>
-    <row r="40" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>19012</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="BF40" s="9"/>
       <c r="BG40" s="9"/>
     </row>
-    <row r="41" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>19013</v>
       </c>
@@ -18268,7 +18268,7 @@
       <c r="BF41" s="9"/>
       <c r="BG41" s="9"/>
     </row>
-    <row r="42" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>19014</v>
       </c>
@@ -18347,7 +18347,7 @@
       <c r="BF42" s="9"/>
       <c r="BG42" s="9"/>
     </row>
-    <row r="43" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>19015</v>
       </c>
@@ -18426,7 +18426,7 @@
       <c r="BF43" s="9"/>
       <c r="BG43" s="9"/>
     </row>
-    <row r="44" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>19016</v>
       </c>
@@ -18505,7 +18505,7 @@
       <c r="BF44" s="9"/>
       <c r="BG44" s="9"/>
     </row>
-    <row r="45" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>19017</v>
       </c>
@@ -18584,7 +18584,7 @@
       <c r="BF45" s="9"/>
       <c r="BG45" s="9"/>
     </row>
-    <row r="46" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>19018</v>
       </c>
@@ -18663,7 +18663,7 @@
       <c r="BF46" s="9"/>
       <c r="BG46" s="9"/>
     </row>
-    <row r="47" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>19019</v>
       </c>
@@ -18742,7 +18742,7 @@
       <c r="BF47" s="9"/>
       <c r="BG47" s="9"/>
     </row>
-    <row r="48" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>19020</v>
       </c>
@@ -18821,7 +18821,7 @@
       <c r="BF48" s="9"/>
       <c r="BG48" s="9"/>
     </row>
-    <row r="49" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>19021</v>
       </c>
@@ -18900,7 +18900,7 @@
       <c r="BF49" s="9"/>
       <c r="BG49" s="9"/>
     </row>
-    <row r="50" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>19022</v>
       </c>
@@ -18979,7 +18979,7 @@
       <c r="BF50" s="9"/>
       <c r="BG50" s="9"/>
     </row>
-    <row r="51" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>19023</v>
       </c>
@@ -19058,7 +19058,7 @@
       <c r="BF51" s="9"/>
       <c r="BG51" s="9"/>
     </row>
-    <row r="52" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>19024</v>
       </c>
@@ -19137,7 +19137,7 @@
       <c r="BF52" s="9"/>
       <c r="BG52" s="9"/>
     </row>
-    <row r="53" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>19025</v>
       </c>
@@ -19216,7 +19216,7 @@
       <c r="BF53" s="9"/>
       <c r="BG53" s="9"/>
     </row>
-    <row r="54" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>19026</v>
       </c>
@@ -19295,7 +19295,7 @@
       <c r="BF54" s="9"/>
       <c r="BG54" s="9"/>
     </row>
-    <row r="55" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>19027</v>
       </c>
@@ -19374,7 +19374,7 @@
       <c r="BF55" s="9"/>
       <c r="BG55" s="9"/>
     </row>
-    <row r="56" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>19028</v>
       </c>
@@ -19453,7 +19453,7 @@
       <c r="BF56" s="9"/>
       <c r="BG56" s="9"/>
     </row>
-    <row r="57" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>19029</v>
       </c>
@@ -19532,7 +19532,7 @@
       <c r="BF57" s="9"/>
       <c r="BG57" s="9"/>
     </row>
-    <row r="58" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>19030</v>
       </c>
@@ -19611,7 +19611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>19031</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>19032</v>
       </c>
@@ -19769,7 +19769,7 @@
       <c r="BF60" s="9"/>
       <c r="BG60" s="9"/>
     </row>
-    <row r="61" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>19033</v>
       </c>
@@ -19848,7 +19848,7 @@
       </c>
       <c r="BG61" s="9"/>
     </row>
-    <row r="62" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>19034</v>
       </c>
@@ -19927,7 +19927,7 @@
       <c r="BF62" s="9"/>
       <c r="BG62" s="9"/>
     </row>
-    <row r="63" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>19035</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>19036</v>
       </c>
@@ -20085,7 +20085,7 @@
       <c r="BF64" s="9"/>
       <c r="BG64" s="9"/>
     </row>
-    <row r="65" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>19037</v>
       </c>
@@ -20164,7 +20164,7 @@
       <c r="BF65" s="9"/>
       <c r="BG65" s="9"/>
     </row>
-    <row r="66" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>19038</v>
       </c>
@@ -20243,7 +20243,7 @@
       <c r="BF66" s="9"/>
       <c r="BG66" s="9"/>
     </row>
-    <row r="67" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>19039</v>
       </c>
@@ -20322,7 +20322,7 @@
       <c r="BF67" s="9"/>
       <c r="BG67" s="9"/>
     </row>
-    <row r="68" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>19040</v>
       </c>
@@ -20401,7 +20401,7 @@
       <c r="BF68" s="9"/>
       <c r="BG68" s="9"/>
     </row>
-    <row r="69" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>19041</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>19042</v>
       </c>
@@ -20559,7 +20559,7 @@
       <c r="BF70" s="9"/>
       <c r="BG70" s="9"/>
     </row>
-    <row r="71" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>19043</v>
       </c>
@@ -20638,7 +20638,7 @@
       <c r="BF71" s="9"/>
       <c r="BG71" s="9"/>
     </row>
-    <row r="72" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>19044</v>
       </c>
@@ -20717,7 +20717,7 @@
       <c r="BF72" s="9"/>
       <c r="BG72" s="9"/>
     </row>
-    <row r="73" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>19045</v>
       </c>
@@ -20796,7 +20796,7 @@
       <c r="BF73" s="9"/>
       <c r="BG73" s="9"/>
     </row>
-    <row r="74" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>19046</v>
       </c>
@@ -20875,7 +20875,7 @@
       <c r="BF74" s="9"/>
       <c r="BG74" s="9"/>
     </row>
-    <row r="75" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>19047</v>
       </c>
@@ -20954,7 +20954,7 @@
       <c r="BF75" s="9"/>
       <c r="BG75" s="9"/>
     </row>
-    <row r="76" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>19048</v>
       </c>
@@ -21033,7 +21033,7 @@
       <c r="BF76" s="9"/>
       <c r="BG76" s="9"/>
     </row>
-    <row r="77" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>19049</v>
       </c>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="BG77" s="9"/>
     </row>
-    <row r="78" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>19050</v>
       </c>
@@ -21215,7 +21215,7 @@
       <c r="BF78" s="9"/>
       <c r="BG78" s="9"/>
     </row>
-    <row r="79" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>19051</v>
       </c>
@@ -21306,7 +21306,7 @@
       <c r="BF79" s="9"/>
       <c r="BG79" s="9"/>
     </row>
-    <row r="80" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>19052</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>19053</v>
       </c>
@@ -21488,7 +21488,7 @@
       <c r="BF81" s="9"/>
       <c r="BG81" s="9"/>
     </row>
-    <row r="82" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>19054</v>
       </c>
@@ -21579,7 +21579,7 @@
       <c r="BF82" s="9"/>
       <c r="BG82" s="9"/>
     </row>
-    <row r="83" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>19055</v>
       </c>
@@ -21670,7 +21670,7 @@
       <c r="BF83" s="9"/>
       <c r="BG83" s="9"/>
     </row>
-    <row r="84" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>19056</v>
       </c>
@@ -21761,7 +21761,7 @@
       <c r="BF84" s="9"/>
       <c r="BG84" s="9"/>
     </row>
-    <row r="85" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>19057</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>19058</v>
       </c>
@@ -21943,7 +21943,7 @@
       <c r="BF86" s="9"/>
       <c r="BG86" s="9"/>
     </row>
-    <row r="87" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>19059</v>
       </c>
@@ -22034,7 +22034,7 @@
       <c r="BF87" s="9"/>
       <c r="BG87" s="9"/>
     </row>
-    <row r="88" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>19060</v>
       </c>
@@ -22125,7 +22125,7 @@
       <c r="BF88" s="9"/>
       <c r="BG88" s="9"/>
     </row>
-    <row r="89" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>19061</v>
       </c>
@@ -22216,7 +22216,7 @@
       <c r="BF89" s="9"/>
       <c r="BG89" s="9"/>
     </row>
-    <row r="90" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>19062</v>
       </c>
@@ -22307,7 +22307,7 @@
       <c r="BF90" s="9"/>
       <c r="BG90" s="9"/>
     </row>
-    <row r="91" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>19063</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>19064</v>
       </c>
@@ -22489,7 +22489,7 @@
       <c r="BF92" s="9"/>
       <c r="BG92" s="9"/>
     </row>
-    <row r="93" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>19065</v>
       </c>
@@ -22580,7 +22580,7 @@
       <c r="BF93" s="9"/>
       <c r="BG93" s="9"/>
     </row>
-    <row r="94" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>19066</v>
       </c>
@@ -22671,7 +22671,7 @@
       <c r="BF94" s="9"/>
       <c r="BG94" s="9"/>
     </row>
-    <row r="95" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>19067</v>
       </c>
@@ -22762,7 +22762,7 @@
       <c r="BF95" s="9"/>
       <c r="BG95" s="9"/>
     </row>
-    <row r="96" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>19068</v>
       </c>
@@ -22853,7 +22853,7 @@
       <c r="BF96" s="9"/>
       <c r="BG96" s="9"/>
     </row>
-    <row r="97" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>19069</v>
       </c>
@@ -22944,7 +22944,7 @@
       <c r="BF97" s="9"/>
       <c r="BG97" s="9"/>
     </row>
-    <row r="98" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>19070</v>
       </c>
@@ -23035,7 +23035,7 @@
       <c r="BF98" s="9"/>
       <c r="BG98" s="9"/>
     </row>
-    <row r="99" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>19071</v>
       </c>
@@ -23126,7 +23126,7 @@
       <c r="BF99" s="9"/>
       <c r="BG99" s="9"/>
     </row>
-    <row r="100" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>19072</v>
       </c>
@@ -23217,7 +23217,7 @@
       </c>
       <c r="BG100" s="9"/>
     </row>
-    <row r="101" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>19073</v>
       </c>
@@ -23308,7 +23308,7 @@
       <c r="BF101" s="9"/>
       <c r="BG101" s="9"/>
     </row>
-    <row r="102" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>19074</v>
       </c>
@@ -23399,7 +23399,7 @@
       <c r="BF102" s="9"/>
       <c r="BG102" s="9"/>
     </row>
-    <row r="103" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>19075</v>
       </c>
@@ -23490,7 +23490,7 @@
       <c r="BF103" s="9"/>
       <c r="BG103" s="9"/>
     </row>
-    <row r="104" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>19076</v>
       </c>
@@ -23567,17 +23567,31 @@
       <c r="BF104" s="9"/>
       <c r="BG104" s="9"/>
     </row>
-    <row r="105" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>19077</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="24"/>
+      <c r="B105" s="1">
+        <v>22</v>
+      </c>
+      <c r="C105" s="1">
+        <v>11</v>
+      </c>
+      <c r="D105" s="1">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1">
+        <v>21</v>
+      </c>
+      <c r="G105" s="1">
+        <v>9</v>
+      </c>
+      <c r="H105" s="24">
+        <v>15</v>
+      </c>
       <c r="I105" s="1"/>
       <c r="J105" s="20"/>
       <c r="K105" s="12"/>
@@ -23630,17 +23644,31 @@
       <c r="BF105" s="9"/>
       <c r="BG105" s="9"/>
     </row>
-    <row r="106" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>19078</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="24"/>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>29</v>
+      </c>
+      <c r="D106" s="1">
+        <v>27</v>
+      </c>
+      <c r="E106" s="1">
+        <v>33</v>
+      </c>
+      <c r="F106" s="1">
+        <v>31</v>
+      </c>
+      <c r="G106" s="1">
+        <v>17</v>
+      </c>
+      <c r="H106" s="24">
+        <v>12</v>
+      </c>
       <c r="I106" s="1"/>
       <c r="J106" s="20"/>
       <c r="K106" s="12"/>
@@ -23693,7 +23721,7 @@
       <c r="BF106" s="9"/>
       <c r="BG106" s="9"/>
     </row>
-    <row r="107" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>19079</v>
       </c>
@@ -23756,7 +23784,7 @@
       <c r="BF107" s="9"/>
       <c r="BG107" s="9"/>
     </row>
-    <row r="108" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>19080</v>
       </c>
@@ -23819,7 +23847,7 @@
       <c r="BF108" s="9"/>
       <c r="BG108" s="9"/>
     </row>
-    <row r="109" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>19081</v>
       </c>
@@ -23882,7 +23910,7 @@
       <c r="BF109" s="9"/>
       <c r="BG109" s="9"/>
     </row>
-    <row r="110" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>19082</v>
       </c>
@@ -23945,7 +23973,7 @@
       <c r="BF110" s="9"/>
       <c r="BG110" s="9"/>
     </row>
-    <row r="111" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>19083</v>
       </c>
@@ -24008,7 +24036,7 @@
       <c r="BF111" s="9"/>
       <c r="BG111" s="9"/>
     </row>
-    <row r="112" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>19084</v>
       </c>
@@ -24071,7 +24099,7 @@
       <c r="BF112" s="9"/>
       <c r="BG112" s="9"/>
     </row>
-    <row r="113" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -24132,7 +24160,7 @@
       <c r="BF113" s="9"/>
       <c r="BG113" s="9"/>
     </row>
-    <row r="114" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -24193,7 +24221,7 @@
       <c r="BF114" s="9"/>
       <c r="BG114" s="9"/>
     </row>
-    <row r="115" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -24254,7 +24282,7 @@
       <c r="BF115" s="9"/>
       <c r="BG115" s="9"/>
     </row>
-    <row r="116" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -24315,7 +24343,7 @@
       <c r="BF116" s="9"/>
       <c r="BG116" s="9"/>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
@@ -24350,7 +24378,7 @@
       <c r="AP117" s="13"/>
       <c r="AQ117" s="13"/>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
@@ -24385,7 +24413,7 @@
       <c r="AP118" s="13"/>
       <c r="AQ118" s="13"/>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
@@ -24420,7 +24448,7 @@
       <c r="AP119" s="13"/>
       <c r="AQ119" s="13"/>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
@@ -24455,7 +24483,7 @@
       <c r="AP120" s="13"/>
       <c r="AQ120" s="13"/>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K121" s="13"/>
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
@@ -24490,7 +24518,7 @@
       <c r="AP121" s="13"/>
       <c r="AQ121" s="13"/>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
@@ -24525,7 +24553,7 @@
       <c r="AP122" s="13"/>
       <c r="AQ122" s="13"/>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
@@ -24560,7 +24588,7 @@
       <c r="AP123" s="13"/>
       <c r="AQ123" s="13"/>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
@@ -24595,7 +24623,7 @@
       <c r="AP124" s="13"/>
       <c r="AQ124" s="13"/>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
@@ -24630,7 +24658,7 @@
       <c r="AP125" s="13"/>
       <c r="AQ125" s="13"/>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
@@ -24665,7 +24693,7 @@
       <c r="AP126" s="13"/>
       <c r="AQ126" s="13"/>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K127" s="13"/>
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
@@ -24700,7 +24728,7 @@
       <c r="AP127" s="13"/>
       <c r="AQ127" s="13"/>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K128" s="13"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
@@ -24735,7 +24763,7 @@
       <c r="AP128" s="13"/>
       <c r="AQ128" s="13"/>
     </row>
-    <row r="129" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="129" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K129" s="13"/>
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
@@ -24770,7 +24798,7 @@
       <c r="AP129" s="13"/>
       <c r="AQ129" s="13"/>
     </row>
-    <row r="130" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="130" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K130" s="13"/>
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
@@ -24805,7 +24833,7 @@
       <c r="AP130" s="13"/>
       <c r="AQ130" s="13"/>
     </row>
-    <row r="131" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="131" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K131" s="13"/>
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
@@ -24840,7 +24868,7 @@
       <c r="AP131" s="13"/>
       <c r="AQ131" s="13"/>
     </row>
-    <row r="132" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="132" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
@@ -24875,7 +24903,7 @@
       <c r="AP132" s="13"/>
       <c r="AQ132" s="13"/>
     </row>
-    <row r="133" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="133" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
@@ -24910,7 +24938,7 @@
       <c r="AP133" s="13"/>
       <c r="AQ133" s="13"/>
     </row>
-    <row r="134" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="134" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K134" s="13"/>
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
@@ -24945,7 +24973,7 @@
       <c r="AP134" s="13"/>
       <c r="AQ134" s="13"/>
     </row>
-    <row r="135" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="135" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K135" s="13"/>
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
@@ -24980,7 +25008,7 @@
       <c r="AP135" s="13"/>
       <c r="AQ135" s="13"/>
     </row>
-    <row r="136" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K136" s="13"/>
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
@@ -25015,7 +25043,7 @@
       <c r="AP136" s="13"/>
       <c r="AQ136" s="13"/>
     </row>
-    <row r="137" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="137" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
@@ -25050,7 +25078,7 @@
       <c r="AP137" s="13"/>
       <c r="AQ137" s="13"/>
     </row>
-    <row r="138" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="138" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
@@ -25085,7 +25113,7 @@
       <c r="AP138" s="13"/>
       <c r="AQ138" s="13"/>
     </row>
-    <row r="139" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="139" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K139" s="13"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
@@ -25120,7 +25148,7 @@
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
     </row>
-    <row r="140" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="140" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K140" s="13"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
@@ -25155,7 +25183,7 @@
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
     </row>
-    <row r="141" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="141" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K141" s="13"/>
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
@@ -25190,7 +25218,7 @@
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
     </row>
-    <row r="142" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="142" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
@@ -25225,7 +25253,7 @@
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
     </row>
-    <row r="143" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="143" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K143" s="13"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
@@ -25260,7 +25288,7 @@
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
     </row>
-    <row r="144" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="144" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K144" s="13"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
@@ -25295,7 +25323,7 @@
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
     </row>
-    <row r="145" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="145" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
@@ -25330,7 +25358,7 @@
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
     </row>
-    <row r="146" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="146" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
@@ -25365,7 +25393,7 @@
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
     </row>
-    <row r="147" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="147" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
@@ -25400,7 +25428,7 @@
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
     </row>
-    <row r="148" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="148" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -25435,7 +25463,7 @@
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
     </row>
-    <row r="149" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="149" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
@@ -25470,7 +25498,7 @@
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
     </row>
-    <row r="150" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="150" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -25505,7 +25533,7 @@
       <c r="AP150" s="13"/>
       <c r="AQ150" s="13"/>
     </row>
-    <row r="151" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="151" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
@@ -25540,7 +25568,7 @@
       <c r="AP151" s="13"/>
       <c r="AQ151" s="13"/>
     </row>
-    <row r="152" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="152" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
@@ -25575,7 +25603,7 @@
       <c r="AP152" s="13"/>
       <c r="AQ152" s="13"/>
     </row>
-    <row r="153" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
@@ -25610,7 +25638,7 @@
       <c r="AP153" s="13"/>
       <c r="AQ153" s="13"/>
     </row>
-    <row r="154" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="154" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
@@ -25645,7 +25673,7 @@
       <c r="AP154" s="13"/>
       <c r="AQ154" s="13"/>
     </row>
-    <row r="155" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="155" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
@@ -25680,7 +25708,7 @@
       <c r="AP155" s="13"/>
       <c r="AQ155" s="13"/>
     </row>
-    <row r="156" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="156" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
@@ -25715,7 +25743,7 @@
       <c r="AP156" s="13"/>
       <c r="AQ156" s="13"/>
     </row>
-    <row r="157" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="157" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
@@ -25750,7 +25778,7 @@
       <c r="AP157" s="13"/>
       <c r="AQ157" s="13"/>
     </row>
-    <row r="158" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="158" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
@@ -25785,7 +25813,7 @@
       <c r="AP158" s="13"/>
       <c r="AQ158" s="13"/>
     </row>
-    <row r="159" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
@@ -25820,7 +25848,7 @@
       <c r="AP159" s="13"/>
       <c r="AQ159" s="13"/>
     </row>
-    <row r="160" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
@@ -25855,7 +25883,7 @@
       <c r="AP160" s="13"/>
       <c r="AQ160" s="13"/>
     </row>
-    <row r="161" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
@@ -25890,7 +25918,7 @@
       <c r="AP161" s="13"/>
       <c r="AQ161" s="13"/>
     </row>
-    <row r="162" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
@@ -25925,7 +25953,7 @@
       <c r="AP162" s="13"/>
       <c r="AQ162" s="13"/>
     </row>
-    <row r="163" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="163" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
@@ -25960,7 +25988,7 @@
       <c r="AP163" s="13"/>
       <c r="AQ163" s="13"/>
     </row>
-    <row r="164" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="164" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
@@ -25995,7 +26023,7 @@
       <c r="AP164" s="13"/>
       <c r="AQ164" s="13"/>
     </row>
-    <row r="165" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="165" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
@@ -26030,7 +26058,7 @@
       <c r="AP165" s="13"/>
       <c r="AQ165" s="13"/>
     </row>
-    <row r="166" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="166" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
@@ -26065,7 +26093,7 @@
       <c r="AP166" s="13"/>
       <c r="AQ166" s="13"/>
     </row>
-    <row r="167" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="167" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
@@ -26100,7 +26128,7 @@
       <c r="AP167" s="13"/>
       <c r="AQ167" s="13"/>
     </row>
-    <row r="168" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="168" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
@@ -26135,7 +26163,7 @@
       <c r="AP168" s="13"/>
       <c r="AQ168" s="13"/>
     </row>
-    <row r="169" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="169" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
@@ -26170,7 +26198,7 @@
       <c r="AP169" s="13"/>
       <c r="AQ169" s="13"/>
     </row>
-    <row r="170" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="170" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K170" s="13"/>
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
@@ -26205,7 +26233,7 @@
       <c r="AP170" s="13"/>
       <c r="AQ170" s="13"/>
     </row>
-    <row r="171" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="171" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K171" s="13"/>
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
@@ -26240,7 +26268,7 @@
       <c r="AP171" s="13"/>
       <c r="AQ171" s="13"/>
     </row>
-    <row r="172" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="172" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
@@ -26275,7 +26303,7 @@
       <c r="AP172" s="13"/>
       <c r="AQ172" s="13"/>
     </row>
-    <row r="173" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="173" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K173" s="13"/>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
@@ -26310,7 +26338,7 @@
       <c r="AP173" s="13"/>
       <c r="AQ173" s="13"/>
     </row>
-    <row r="174" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="174" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
@@ -26345,7 +26373,7 @@
       <c r="AP174" s="13"/>
       <c r="AQ174" s="13"/>
     </row>
-    <row r="175" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="175" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
@@ -26380,7 +26408,7 @@
       <c r="AP175" s="13"/>
       <c r="AQ175" s="13"/>
     </row>
-    <row r="176" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="176" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
@@ -26415,7 +26443,7 @@
       <c r="AP176" s="13"/>
       <c r="AQ176" s="13"/>
     </row>
-    <row r="177" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="177" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K177" s="13"/>
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
@@ -26450,7 +26478,7 @@
       <c r="AP177" s="13"/>
       <c r="AQ177" s="13"/>
     </row>
-    <row r="178" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="178" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
@@ -26485,7 +26513,7 @@
       <c r="AP178" s="13"/>
       <c r="AQ178" s="13"/>
     </row>
-    <row r="179" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="179" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K179" s="13"/>
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
@@ -26520,7 +26548,7 @@
       <c r="AP179" s="13"/>
       <c r="AQ179" s="13"/>
     </row>
-    <row r="180" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="180" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
@@ -26555,7 +26583,7 @@
       <c r="AP180" s="13"/>
       <c r="AQ180" s="13"/>
     </row>
-    <row r="181" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="181" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
@@ -26590,7 +26618,7 @@
       <c r="AP181" s="13"/>
       <c r="AQ181" s="13"/>
     </row>
-    <row r="182" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="182" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
@@ -26625,7 +26653,7 @@
       <c r="AP182" s="13"/>
       <c r="AQ182" s="13"/>
     </row>
-    <row r="183" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="183" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
@@ -26660,7 +26688,7 @@
       <c r="AP183" s="13"/>
       <c r="AQ183" s="13"/>
     </row>
-    <row r="184" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="184" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
@@ -26695,7 +26723,7 @@
       <c r="AP184" s="13"/>
       <c r="AQ184" s="13"/>
     </row>
-    <row r="185" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="185" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K185" s="13"/>
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
@@ -26730,7 +26758,7 @@
       <c r="AP185" s="13"/>
       <c r="AQ185" s="13"/>
     </row>
-    <row r="186" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="186" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
@@ -26765,7 +26793,7 @@
       <c r="AP186" s="13"/>
       <c r="AQ186" s="13"/>
     </row>
-    <row r="187" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="187" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
@@ -26800,7 +26828,7 @@
       <c r="AP187" s="13"/>
       <c r="AQ187" s="13"/>
     </row>
-    <row r="188" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="188" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
@@ -26835,7 +26863,7 @@
       <c r="AP188" s="13"/>
       <c r="AQ188" s="13"/>
     </row>
-    <row r="189" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="189" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
@@ -26870,7 +26898,7 @@
       <c r="AP189" s="13"/>
       <c r="AQ189" s="13"/>
     </row>
-    <row r="190" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="190" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
@@ -26905,7 +26933,7 @@
       <c r="AP190" s="13"/>
       <c r="AQ190" s="13"/>
     </row>
-    <row r="191" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="191" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K191" s="13"/>
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
@@ -26940,7 +26968,7 @@
       <c r="AP191" s="13"/>
       <c r="AQ191" s="13"/>
     </row>
-    <row r="192" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="192" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K192" s="13"/>
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
@@ -26975,7 +27003,7 @@
       <c r="AP192" s="13"/>
       <c r="AQ192" s="13"/>
     </row>
-    <row r="193" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="193" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K193" s="13"/>
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
@@ -27010,7 +27038,7 @@
       <c r="AP193" s="13"/>
       <c r="AQ193" s="13"/>
     </row>
-    <row r="194" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="194" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K194" s="13"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
@@ -27045,7 +27073,7 @@
       <c r="AP194" s="13"/>
       <c r="AQ194" s="13"/>
     </row>
-    <row r="195" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="195" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K195" s="13"/>
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
@@ -27080,7 +27108,7 @@
       <c r="AP195" s="13"/>
       <c r="AQ195" s="13"/>
     </row>
-    <row r="196" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="196" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K196" s="13"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
@@ -27115,7 +27143,7 @@
       <c r="AP196" s="13"/>
       <c r="AQ196" s="13"/>
     </row>
-    <row r="197" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="197" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K197" s="13"/>
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
@@ -27150,7 +27178,7 @@
       <c r="AP197" s="13"/>
       <c r="AQ197" s="13"/>
     </row>
-    <row r="198" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="198" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
@@ -27185,7 +27213,7 @@
       <c r="AP198" s="13"/>
       <c r="AQ198" s="13"/>
     </row>
-    <row r="199" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="199" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K199" s="13"/>
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
@@ -27220,7 +27248,7 @@
       <c r="AP199" s="13"/>
       <c r="AQ199" s="13"/>
     </row>
-    <row r="200" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="200" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
@@ -27266,24 +27294,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG110" sqref="AG110"/>
+      <selection pane="bottomRight" activeCell="Q107" sqref="Q107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="9" width="2.58203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="6" customWidth="1"/>
-    <col min="11" max="43" width="2.58203125" style="10" customWidth="1"/>
-    <col min="44" max="59" width="2.58203125" style="11" customWidth="1"/>
-    <col min="60" max="16384" width="2.58203125" style="2"/>
+    <col min="2" max="9" width="2.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="6" customWidth="1"/>
+    <col min="11" max="43" width="2.625" style="10" customWidth="1"/>
+    <col min="44" max="59" width="2.625" style="11" customWidth="1"/>
+    <col min="60" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27458,7 +27486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -27519,7 +27547,7 @@
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
     </row>
-    <row r="3" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>18128</v>
       </c>
@@ -27664,7 +27692,7 @@
       <c r="BF3" s="18"/>
       <c r="BG3" s="18"/>
     </row>
-    <row r="4" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>18129</v>
       </c>
@@ -27809,7 +27837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>18130</v>
       </c>
@@ -27954,7 +27982,7 @@
       <c r="BF5" s="18"/>
       <c r="BG5" s="18"/>
     </row>
-    <row r="6" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>18131</v>
       </c>
@@ -28099,7 +28127,7 @@
       <c r="BF6" s="18"/>
       <c r="BG6" s="18"/>
     </row>
-    <row r="7" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>18132</v>
       </c>
@@ -28190,7 +28218,7 @@
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
     </row>
-    <row r="8" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>18133</v>
       </c>
@@ -28281,7 +28309,7 @@
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
     </row>
-    <row r="9" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>18134</v>
       </c>
@@ -28360,7 +28388,7 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
     </row>
-    <row r="10" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>18135</v>
       </c>
@@ -28439,7 +28467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>18136</v>
       </c>
@@ -28518,7 +28546,7 @@
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
     </row>
-    <row r="12" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>18137</v>
       </c>
@@ -28597,7 +28625,7 @@
       <c r="BF12" s="9"/>
       <c r="BG12" s="9"/>
     </row>
-    <row r="13" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18138</v>
       </c>
@@ -28676,7 +28704,7 @@
       <c r="BF13" s="9"/>
       <c r="BG13" s="9"/>
     </row>
-    <row r="14" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>18139</v>
       </c>
@@ -28755,7 +28783,7 @@
       </c>
       <c r="BG14" s="9"/>
     </row>
-    <row r="15" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>18140</v>
       </c>
@@ -28834,7 +28862,7 @@
       <c r="BF15" s="9"/>
       <c r="BG15" s="9"/>
     </row>
-    <row r="16" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>18141</v>
       </c>
@@ -28913,7 +28941,7 @@
       <c r="BF16" s="9"/>
       <c r="BG16" s="9"/>
     </row>
-    <row r="17" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>18142</v>
       </c>
@@ -28992,7 +29020,7 @@
       <c r="BF17" s="9"/>
       <c r="BG17" s="9"/>
     </row>
-    <row r="18" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18143</v>
       </c>
@@ -29071,7 +29099,7 @@
       <c r="BF18" s="9"/>
       <c r="BG18" s="9"/>
     </row>
-    <row r="19" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18144</v>
       </c>
@@ -29150,7 +29178,7 @@
       <c r="BF19" s="9"/>
       <c r="BG19" s="9"/>
     </row>
-    <row r="20" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18145</v>
       </c>
@@ -29229,7 +29257,7 @@
       <c r="BF20" s="9"/>
       <c r="BG20" s="9"/>
     </row>
-    <row r="21" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18146</v>
       </c>
@@ -29308,7 +29336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18147</v>
       </c>
@@ -29387,7 +29415,7 @@
       <c r="BF22" s="9"/>
       <c r="BG22" s="9"/>
     </row>
-    <row r="23" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>18148</v>
       </c>
@@ -29466,7 +29494,7 @@
       <c r="BF23" s="9"/>
       <c r="BG23" s="9"/>
     </row>
-    <row r="24" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>18149</v>
       </c>
@@ -29545,7 +29573,7 @@
       <c r="BF24" s="9"/>
       <c r="BG24" s="9"/>
     </row>
-    <row r="25" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>18150</v>
       </c>
@@ -29624,7 +29652,7 @@
       <c r="BF25" s="9"/>
       <c r="BG25" s="9"/>
     </row>
-    <row r="26" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>18151</v>
       </c>
@@ -29703,7 +29731,7 @@
       </c>
       <c r="BG26" s="9"/>
     </row>
-    <row r="27" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18152</v>
       </c>
@@ -29782,7 +29810,7 @@
       <c r="BF27" s="9"/>
       <c r="BG27" s="9"/>
     </row>
-    <row r="28" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>18153</v>
       </c>
@@ -29861,7 +29889,7 @@
       <c r="BF28" s="9"/>
       <c r="BG28" s="9"/>
     </row>
-    <row r="29" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>19001</v>
       </c>
@@ -29940,7 +29968,7 @@
       </c>
       <c r="BG29" s="9"/>
     </row>
-    <row r="30" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19002</v>
       </c>
@@ -30019,7 +30047,7 @@
       <c r="BF30" s="9"/>
       <c r="BG30" s="9"/>
     </row>
-    <row r="31" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>19003</v>
       </c>
@@ -30098,7 +30126,7 @@
       <c r="BF31" s="9"/>
       <c r="BG31" s="9"/>
     </row>
-    <row r="32" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>19004</v>
       </c>
@@ -30177,7 +30205,7 @@
       <c r="BF32" s="9"/>
       <c r="BG32" s="9"/>
     </row>
-    <row r="33" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>19005</v>
       </c>
@@ -30256,7 +30284,7 @@
       <c r="BF33" s="9"/>
       <c r="BG33" s="9"/>
     </row>
-    <row r="34" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>19006</v>
       </c>
@@ -30335,7 +30363,7 @@
       <c r="BF34" s="9"/>
       <c r="BG34" s="9"/>
     </row>
-    <row r="35" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>19007</v>
       </c>
@@ -30414,7 +30442,7 @@
       </c>
       <c r="BG35" s="9"/>
     </row>
-    <row r="36" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>19008</v>
       </c>
@@ -30493,7 +30521,7 @@
       <c r="BF36" s="9"/>
       <c r="BG36" s="9"/>
     </row>
-    <row r="37" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>19009</v>
       </c>
@@ -30572,7 +30600,7 @@
       </c>
       <c r="BG37" s="9"/>
     </row>
-    <row r="38" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>19010</v>
       </c>
@@ -30651,7 +30679,7 @@
       <c r="BF38" s="9"/>
       <c r="BG38" s="9"/>
     </row>
-    <row r="39" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>19011</v>
       </c>
@@ -30730,7 +30758,7 @@
       <c r="BF39" s="9"/>
       <c r="BG39" s="9"/>
     </row>
-    <row r="40" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>19012</v>
       </c>
@@ -30809,7 +30837,7 @@
       <c r="BF40" s="9"/>
       <c r="BG40" s="9"/>
     </row>
-    <row r="41" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>19013</v>
       </c>
@@ -30888,7 +30916,7 @@
       <c r="BF41" s="9"/>
       <c r="BG41" s="9"/>
     </row>
-    <row r="42" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>19014</v>
       </c>
@@ -30967,7 +30995,7 @@
       <c r="BF42" s="9"/>
       <c r="BG42" s="9"/>
     </row>
-    <row r="43" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>19015</v>
       </c>
@@ -31046,7 +31074,7 @@
       <c r="BF43" s="9"/>
       <c r="BG43" s="9"/>
     </row>
-    <row r="44" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>19016</v>
       </c>
@@ -31125,7 +31153,7 @@
       <c r="BF44" s="9"/>
       <c r="BG44" s="9"/>
     </row>
-    <row r="45" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>19017</v>
       </c>
@@ -31204,7 +31232,7 @@
       <c r="BF45" s="9"/>
       <c r="BG45" s="9"/>
     </row>
-    <row r="46" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>19018</v>
       </c>
@@ -31283,7 +31311,7 @@
       <c r="BF46" s="9"/>
       <c r="BG46" s="9"/>
     </row>
-    <row r="47" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>19019</v>
       </c>
@@ -31362,7 +31390,7 @@
       <c r="BF47" s="9"/>
       <c r="BG47" s="9"/>
     </row>
-    <row r="48" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>19020</v>
       </c>
@@ -31441,7 +31469,7 @@
       <c r="BF48" s="9"/>
       <c r="BG48" s="9"/>
     </row>
-    <row r="49" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>19021</v>
       </c>
@@ -31520,7 +31548,7 @@
       <c r="BF49" s="9"/>
       <c r="BG49" s="9"/>
     </row>
-    <row r="50" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>19022</v>
       </c>
@@ -31599,7 +31627,7 @@
       <c r="BF50" s="9"/>
       <c r="BG50" s="9"/>
     </row>
-    <row r="51" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>19023</v>
       </c>
@@ -31678,7 +31706,7 @@
       <c r="BF51" s="9"/>
       <c r="BG51" s="9"/>
     </row>
-    <row r="52" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>19024</v>
       </c>
@@ -31757,7 +31785,7 @@
       <c r="BF52" s="9"/>
       <c r="BG52" s="9"/>
     </row>
-    <row r="53" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>19025</v>
       </c>
@@ -31836,7 +31864,7 @@
       <c r="BF53" s="9"/>
       <c r="BG53" s="9"/>
     </row>
-    <row r="54" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>19026</v>
       </c>
@@ -31915,7 +31943,7 @@
       <c r="BF54" s="9"/>
       <c r="BG54" s="9"/>
     </row>
-    <row r="55" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>19027</v>
       </c>
@@ -31994,7 +32022,7 @@
       <c r="BF55" s="9"/>
       <c r="BG55" s="9"/>
     </row>
-    <row r="56" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>19028</v>
       </c>
@@ -32073,7 +32101,7 @@
       <c r="BF56" s="9"/>
       <c r="BG56" s="9"/>
     </row>
-    <row r="57" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>19029</v>
       </c>
@@ -32152,7 +32180,7 @@
       <c r="BF57" s="9"/>
       <c r="BG57" s="9"/>
     </row>
-    <row r="58" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>19030</v>
       </c>
@@ -32231,7 +32259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>19031</v>
       </c>
@@ -32310,7 +32338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>19032</v>
       </c>
@@ -32389,7 +32417,7 @@
       <c r="BF60" s="9"/>
       <c r="BG60" s="9"/>
     </row>
-    <row r="61" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>19033</v>
       </c>
@@ -32468,7 +32496,7 @@
       </c>
       <c r="BG61" s="9"/>
     </row>
-    <row r="62" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>19034</v>
       </c>
@@ -32547,7 +32575,7 @@
       <c r="BF62" s="9"/>
       <c r="BG62" s="9"/>
     </row>
-    <row r="63" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>19035</v>
       </c>
@@ -32626,7 +32654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>19036</v>
       </c>
@@ -32705,7 +32733,7 @@
       <c r="BF64" s="9"/>
       <c r="BG64" s="9"/>
     </row>
-    <row r="65" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>19037</v>
       </c>
@@ -32784,7 +32812,7 @@
       <c r="BF65" s="9"/>
       <c r="BG65" s="9"/>
     </row>
-    <row r="66" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>19038</v>
       </c>
@@ -32863,7 +32891,7 @@
       <c r="BF66" s="9"/>
       <c r="BG66" s="9"/>
     </row>
-    <row r="67" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>19039</v>
       </c>
@@ -32942,7 +32970,7 @@
       <c r="BF67" s="9"/>
       <c r="BG67" s="9"/>
     </row>
-    <row r="68" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>19040</v>
       </c>
@@ -33021,7 +33049,7 @@
       <c r="BF68" s="9"/>
       <c r="BG68" s="9"/>
     </row>
-    <row r="69" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>19041</v>
       </c>
@@ -33100,7 +33128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>19042</v>
       </c>
@@ -33179,7 +33207,7 @@
       <c r="BF70" s="9"/>
       <c r="BG70" s="9"/>
     </row>
-    <row r="71" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>19043</v>
       </c>
@@ -33258,7 +33286,7 @@
       <c r="BF71" s="9"/>
       <c r="BG71" s="9"/>
     </row>
-    <row r="72" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>19044</v>
       </c>
@@ -33337,7 +33365,7 @@
       <c r="BF72" s="9"/>
       <c r="BG72" s="9"/>
     </row>
-    <row r="73" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>19045</v>
       </c>
@@ -33416,7 +33444,7 @@
       <c r="BF73" s="9"/>
       <c r="BG73" s="9"/>
     </row>
-    <row r="74" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>19046</v>
       </c>
@@ -33495,7 +33523,7 @@
       <c r="BF74" s="9"/>
       <c r="BG74" s="9"/>
     </row>
-    <row r="75" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>19047</v>
       </c>
@@ -33574,7 +33602,7 @@
       <c r="BF75" s="9"/>
       <c r="BG75" s="9"/>
     </row>
-    <row r="76" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>19048</v>
       </c>
@@ -33653,7 +33681,7 @@
       <c r="BF76" s="9"/>
       <c r="BG76" s="9"/>
     </row>
-    <row r="77" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>19049</v>
       </c>
@@ -33744,7 +33772,7 @@
       </c>
       <c r="BG77" s="9"/>
     </row>
-    <row r="78" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>19050</v>
       </c>
@@ -33835,7 +33863,7 @@
       <c r="BF78" s="9"/>
       <c r="BG78" s="9"/>
     </row>
-    <row r="79" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>19051</v>
       </c>
@@ -33926,7 +33954,7 @@
       <c r="BF79" s="9"/>
       <c r="BG79" s="9"/>
     </row>
-    <row r="80" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>19052</v>
       </c>
@@ -34017,7 +34045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>19053</v>
       </c>
@@ -34108,7 +34136,7 @@
       <c r="BF81" s="9"/>
       <c r="BG81" s="9"/>
     </row>
-    <row r="82" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>19054</v>
       </c>
@@ -34199,7 +34227,7 @@
       <c r="BF82" s="9"/>
       <c r="BG82" s="9"/>
     </row>
-    <row r="83" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>19055</v>
       </c>
@@ -34290,7 +34318,7 @@
       <c r="BF83" s="9"/>
       <c r="BG83" s="9"/>
     </row>
-    <row r="84" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>19056</v>
       </c>
@@ -34381,7 +34409,7 @@
       <c r="BF84" s="9"/>
       <c r="BG84" s="9"/>
     </row>
-    <row r="85" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>19057</v>
       </c>
@@ -34472,7 +34500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>19058</v>
       </c>
@@ -34563,7 +34591,7 @@
       <c r="BF86" s="9"/>
       <c r="BG86" s="9"/>
     </row>
-    <row r="87" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>19059</v>
       </c>
@@ -34654,7 +34682,7 @@
       <c r="BF87" s="9"/>
       <c r="BG87" s="9"/>
     </row>
-    <row r="88" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>19060</v>
       </c>
@@ -34745,7 +34773,7 @@
       <c r="BF88" s="9"/>
       <c r="BG88" s="9"/>
     </row>
-    <row r="89" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>19061</v>
       </c>
@@ -34836,7 +34864,7 @@
       <c r="BF89" s="9"/>
       <c r="BG89" s="9"/>
     </row>
-    <row r="90" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>19062</v>
       </c>
@@ -34927,7 +34955,7 @@
       <c r="BF90" s="9"/>
       <c r="BG90" s="9"/>
     </row>
-    <row r="91" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>19063</v>
       </c>
@@ -35018,7 +35046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>19064</v>
       </c>
@@ -35109,7 +35137,7 @@
       <c r="BF92" s="9"/>
       <c r="BG92" s="9"/>
     </row>
-    <row r="93" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>19065</v>
       </c>
@@ -35200,7 +35228,7 @@
       <c r="BF93" s="9"/>
       <c r="BG93" s="9"/>
     </row>
-    <row r="94" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>19066</v>
       </c>
@@ -35291,7 +35319,7 @@
       <c r="BF94" s="9"/>
       <c r="BG94" s="9"/>
     </row>
-    <row r="95" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>19067</v>
       </c>
@@ -35382,7 +35410,7 @@
       <c r="BF95" s="9"/>
       <c r="BG95" s="9"/>
     </row>
-    <row r="96" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>19068</v>
       </c>
@@ -35473,7 +35501,7 @@
       <c r="BF96" s="9"/>
       <c r="BG96" s="9"/>
     </row>
-    <row r="97" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>19069</v>
       </c>
@@ -35564,7 +35592,7 @@
       <c r="BF97" s="9"/>
       <c r="BG97" s="9"/>
     </row>
-    <row r="98" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>19070</v>
       </c>
@@ -35655,7 +35683,7 @@
       <c r="BF98" s="9"/>
       <c r="BG98" s="9"/>
     </row>
-    <row r="99" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>19071</v>
       </c>
@@ -35746,7 +35774,7 @@
       <c r="BF99" s="9"/>
       <c r="BG99" s="9"/>
     </row>
-    <row r="100" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>19072</v>
       </c>
@@ -35837,7 +35865,7 @@
       </c>
       <c r="BG100" s="9"/>
     </row>
-    <row r="101" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>19073</v>
       </c>
@@ -35928,7 +35956,7 @@
       <c r="BF101" s="9"/>
       <c r="BG101" s="9"/>
     </row>
-    <row r="102" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>19074</v>
       </c>
@@ -36019,7 +36047,7 @@
       <c r="BF102" s="9"/>
       <c r="BG102" s="9"/>
     </row>
-    <row r="103" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>19075</v>
       </c>
@@ -36110,7 +36138,7 @@
       <c r="BF103" s="9"/>
       <c r="BG103" s="9"/>
     </row>
-    <row r="104" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>19076</v>
       </c>
@@ -36201,17 +36229,31 @@
       <c r="BF104" s="9"/>
       <c r="BG104" s="9"/>
     </row>
-    <row r="105" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>19077</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="24"/>
+      <c r="B105" s="4">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" s="4">
+        <v>13</v>
+      </c>
+      <c r="E105" s="4">
+        <v>18</v>
+      </c>
+      <c r="F105" s="4">
+        <v>21</v>
+      </c>
+      <c r="G105" s="4">
+        <v>22</v>
+      </c>
+      <c r="H105" s="24">
+        <v>15</v>
+      </c>
       <c r="I105" s="1"/>
       <c r="J105" s="20"/>
       <c r="K105" s="12"/>
@@ -36264,17 +36306,31 @@
       <c r="BF105" s="9"/>
       <c r="BG105" s="9"/>
     </row>
-    <row r="106" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>19078</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="24"/>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>17</v>
+      </c>
+      <c r="D106" s="4">
+        <v>27</v>
+      </c>
+      <c r="E106" s="4">
+        <v>29</v>
+      </c>
+      <c r="F106" s="4">
+        <v>31</v>
+      </c>
+      <c r="G106" s="4">
+        <v>33</v>
+      </c>
+      <c r="H106" s="24">
+        <v>12</v>
+      </c>
       <c r="I106" s="1"/>
       <c r="J106" s="20"/>
       <c r="K106" s="12"/>
@@ -36327,7 +36383,7 @@
       <c r="BF106" s="9"/>
       <c r="BG106" s="9"/>
     </row>
-    <row r="107" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>19079</v>
       </c>
@@ -36390,7 +36446,7 @@
       <c r="BF107" s="9"/>
       <c r="BG107" s="9"/>
     </row>
-    <row r="108" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>19080</v>
       </c>
@@ -36453,7 +36509,7 @@
       <c r="BF108" s="9"/>
       <c r="BG108" s="9"/>
     </row>
-    <row r="109" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>19081</v>
       </c>
@@ -36516,7 +36572,7 @@
       <c r="BF109" s="9"/>
       <c r="BG109" s="9"/>
     </row>
-    <row r="110" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>19082</v>
       </c>
@@ -36579,7 +36635,7 @@
       <c r="BF110" s="9"/>
       <c r="BG110" s="9"/>
     </row>
-    <row r="111" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>19083</v>
       </c>
@@ -36642,7 +36698,7 @@
       <c r="BF111" s="9"/>
       <c r="BG111" s="9"/>
     </row>
-    <row r="112" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>19084</v>
       </c>
@@ -36705,7 +36761,7 @@
       <c r="BF112" s="9"/>
       <c r="BG112" s="9"/>
     </row>
-    <row r="113" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -36766,7 +36822,7 @@
       <c r="BF113" s="9"/>
       <c r="BG113" s="9"/>
     </row>
-    <row r="114" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -36827,7 +36883,7 @@
       <c r="BF114" s="9"/>
       <c r="BG114" s="9"/>
     </row>
-    <row r="115" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -36888,7 +36944,7 @@
       <c r="BF115" s="9"/>
       <c r="BG115" s="9"/>
     </row>
-    <row r="116" spans="1:59" ht="12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -36949,7 +37005,7 @@
       <c r="BF116" s="9"/>
       <c r="BG116" s="9"/>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
@@ -36984,7 +37040,7 @@
       <c r="AP117" s="13"/>
       <c r="AQ117" s="13"/>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
@@ -37019,7 +37075,7 @@
       <c r="AP118" s="13"/>
       <c r="AQ118" s="13"/>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
@@ -37054,7 +37110,7 @@
       <c r="AP119" s="13"/>
       <c r="AQ119" s="13"/>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
@@ -37089,7 +37145,7 @@
       <c r="AP120" s="13"/>
       <c r="AQ120" s="13"/>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K121" s="13"/>
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
@@ -37124,7 +37180,7 @@
       <c r="AP121" s="13"/>
       <c r="AQ121" s="13"/>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
@@ -37159,7 +37215,7 @@
       <c r="AP122" s="13"/>
       <c r="AQ122" s="13"/>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
@@ -37194,7 +37250,7 @@
       <c r="AP123" s="13"/>
       <c r="AQ123" s="13"/>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
@@ -37229,7 +37285,7 @@
       <c r="AP124" s="13"/>
       <c r="AQ124" s="13"/>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
@@ -37264,7 +37320,7 @@
       <c r="AP125" s="13"/>
       <c r="AQ125" s="13"/>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
@@ -37299,7 +37355,7 @@
       <c r="AP126" s="13"/>
       <c r="AQ126" s="13"/>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K127" s="13"/>
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
@@ -37334,7 +37390,7 @@
       <c r="AP127" s="13"/>
       <c r="AQ127" s="13"/>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.2">
       <c r="K128" s="13"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
@@ -37369,7 +37425,7 @@
       <c r="AP128" s="13"/>
       <c r="AQ128" s="13"/>
     </row>
-    <row r="129" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="129" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K129" s="13"/>
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
@@ -37404,7 +37460,7 @@
       <c r="AP129" s="13"/>
       <c r="AQ129" s="13"/>
     </row>
-    <row r="130" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="130" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K130" s="13"/>
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
@@ -37439,7 +37495,7 @@
       <c r="AP130" s="13"/>
       <c r="AQ130" s="13"/>
     </row>
-    <row r="131" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="131" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K131" s="13"/>
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
@@ -37474,7 +37530,7 @@
       <c r="AP131" s="13"/>
       <c r="AQ131" s="13"/>
     </row>
-    <row r="132" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="132" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
@@ -37509,7 +37565,7 @@
       <c r="AP132" s="13"/>
       <c r="AQ132" s="13"/>
     </row>
-    <row r="133" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="133" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
@@ -37544,7 +37600,7 @@
       <c r="AP133" s="13"/>
       <c r="AQ133" s="13"/>
     </row>
-    <row r="134" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="134" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K134" s="13"/>
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
@@ -37579,7 +37635,7 @@
       <c r="AP134" s="13"/>
       <c r="AQ134" s="13"/>
     </row>
-    <row r="135" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="135" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K135" s="13"/>
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
@@ -37614,7 +37670,7 @@
       <c r="AP135" s="13"/>
       <c r="AQ135" s="13"/>
     </row>
-    <row r="136" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K136" s="13"/>
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
@@ -37649,7 +37705,7 @@
       <c r="AP136" s="13"/>
       <c r="AQ136" s="13"/>
     </row>
-    <row r="137" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="137" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
@@ -37684,7 +37740,7 @@
       <c r="AP137" s="13"/>
       <c r="AQ137" s="13"/>
     </row>
-    <row r="138" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="138" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
@@ -37719,7 +37775,7 @@
       <c r="AP138" s="13"/>
       <c r="AQ138" s="13"/>
     </row>
-    <row r="139" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="139" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K139" s="13"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
@@ -37754,7 +37810,7 @@
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
     </row>
-    <row r="140" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="140" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K140" s="13"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
@@ -37789,7 +37845,7 @@
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
     </row>
-    <row r="141" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="141" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K141" s="13"/>
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
@@ -37824,7 +37880,7 @@
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
     </row>
-    <row r="142" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="142" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
@@ -37859,7 +37915,7 @@
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
     </row>
-    <row r="143" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="143" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K143" s="13"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
@@ -37894,7 +37950,7 @@
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
     </row>
-    <row r="144" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="144" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K144" s="13"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
@@ -37929,7 +37985,7 @@
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
     </row>
-    <row r="145" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="145" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
@@ -37964,7 +38020,7 @@
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
     </row>
-    <row r="146" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="146" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
@@ -37999,7 +38055,7 @@
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
     </row>
-    <row r="147" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="147" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
@@ -38034,7 +38090,7 @@
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
     </row>
-    <row r="148" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="148" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -38069,7 +38125,7 @@
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
     </row>
-    <row r="149" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="149" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
@@ -38104,7 +38160,7 @@
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
     </row>
-    <row r="150" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="150" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -38139,7 +38195,7 @@
       <c r="AP150" s="13"/>
       <c r="AQ150" s="13"/>
     </row>
-    <row r="151" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="151" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
@@ -38174,7 +38230,7 @@
       <c r="AP151" s="13"/>
       <c r="AQ151" s="13"/>
     </row>
-    <row r="152" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="152" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
@@ -38209,7 +38265,7 @@
       <c r="AP152" s="13"/>
       <c r="AQ152" s="13"/>
     </row>
-    <row r="153" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
@@ -38244,7 +38300,7 @@
       <c r="AP153" s="13"/>
       <c r="AQ153" s="13"/>
     </row>
-    <row r="154" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="154" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
@@ -38279,7 +38335,7 @@
       <c r="AP154" s="13"/>
       <c r="AQ154" s="13"/>
     </row>
-    <row r="155" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="155" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
@@ -38314,7 +38370,7 @@
       <c r="AP155" s="13"/>
       <c r="AQ155" s="13"/>
     </row>
-    <row r="156" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="156" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
@@ -38349,7 +38405,7 @@
       <c r="AP156" s="13"/>
       <c r="AQ156" s="13"/>
     </row>
-    <row r="157" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="157" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
@@ -38384,7 +38440,7 @@
       <c r="AP157" s="13"/>
       <c r="AQ157" s="13"/>
     </row>
-    <row r="158" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="158" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
@@ -38419,7 +38475,7 @@
       <c r="AP158" s="13"/>
       <c r="AQ158" s="13"/>
     </row>
-    <row r="159" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
@@ -38454,7 +38510,7 @@
       <c r="AP159" s="13"/>
       <c r="AQ159" s="13"/>
     </row>
-    <row r="160" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
@@ -38489,7 +38545,7 @@
       <c r="AP160" s="13"/>
       <c r="AQ160" s="13"/>
     </row>
-    <row r="161" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
@@ -38524,7 +38580,7 @@
       <c r="AP161" s="13"/>
       <c r="AQ161" s="13"/>
     </row>
-    <row r="162" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
@@ -38559,7 +38615,7 @@
       <c r="AP162" s="13"/>
       <c r="AQ162" s="13"/>
     </row>
-    <row r="163" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="163" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
@@ -38594,7 +38650,7 @@
       <c r="AP163" s="13"/>
       <c r="AQ163" s="13"/>
     </row>
-    <row r="164" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="164" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
@@ -38629,7 +38685,7 @@
       <c r="AP164" s="13"/>
       <c r="AQ164" s="13"/>
     </row>
-    <row r="165" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="165" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
@@ -38664,7 +38720,7 @@
       <c r="AP165" s="13"/>
       <c r="AQ165" s="13"/>
     </row>
-    <row r="166" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="166" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
@@ -38699,7 +38755,7 @@
       <c r="AP166" s="13"/>
       <c r="AQ166" s="13"/>
     </row>
-    <row r="167" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="167" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
@@ -38734,7 +38790,7 @@
       <c r="AP167" s="13"/>
       <c r="AQ167" s="13"/>
     </row>
-    <row r="168" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="168" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
@@ -38769,7 +38825,7 @@
       <c r="AP168" s="13"/>
       <c r="AQ168" s="13"/>
     </row>
-    <row r="169" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="169" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
@@ -38804,7 +38860,7 @@
       <c r="AP169" s="13"/>
       <c r="AQ169" s="13"/>
     </row>
-    <row r="170" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="170" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K170" s="13"/>
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
@@ -38839,7 +38895,7 @@
       <c r="AP170" s="13"/>
       <c r="AQ170" s="13"/>
     </row>
-    <row r="171" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="171" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K171" s="13"/>
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
@@ -38874,7 +38930,7 @@
       <c r="AP171" s="13"/>
       <c r="AQ171" s="13"/>
     </row>
-    <row r="172" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="172" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
@@ -38909,7 +38965,7 @@
       <c r="AP172" s="13"/>
       <c r="AQ172" s="13"/>
     </row>
-    <row r="173" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="173" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K173" s="13"/>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
@@ -38944,7 +39000,7 @@
       <c r="AP173" s="13"/>
       <c r="AQ173" s="13"/>
     </row>
-    <row r="174" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="174" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
@@ -38979,7 +39035,7 @@
       <c r="AP174" s="13"/>
       <c r="AQ174" s="13"/>
     </row>
-    <row r="175" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="175" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
@@ -39014,7 +39070,7 @@
       <c r="AP175" s="13"/>
       <c r="AQ175" s="13"/>
     </row>
-    <row r="176" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="176" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
@@ -39049,7 +39105,7 @@
       <c r="AP176" s="13"/>
       <c r="AQ176" s="13"/>
     </row>
-    <row r="177" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="177" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K177" s="13"/>
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
@@ -39084,7 +39140,7 @@
       <c r="AP177" s="13"/>
       <c r="AQ177" s="13"/>
     </row>
-    <row r="178" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="178" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
@@ -39119,7 +39175,7 @@
       <c r="AP178" s="13"/>
       <c r="AQ178" s="13"/>
     </row>
-    <row r="179" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="179" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K179" s="13"/>
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
@@ -39154,7 +39210,7 @@
       <c r="AP179" s="13"/>
       <c r="AQ179" s="13"/>
     </row>
-    <row r="180" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="180" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
@@ -39189,7 +39245,7 @@
       <c r="AP180" s="13"/>
       <c r="AQ180" s="13"/>
     </row>
-    <row r="181" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="181" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
@@ -39224,7 +39280,7 @@
       <c r="AP181" s="13"/>
       <c r="AQ181" s="13"/>
     </row>
-    <row r="182" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="182" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
@@ -39259,7 +39315,7 @@
       <c r="AP182" s="13"/>
       <c r="AQ182" s="13"/>
     </row>
-    <row r="183" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="183" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
@@ -39294,7 +39350,7 @@
       <c r="AP183" s="13"/>
       <c r="AQ183" s="13"/>
     </row>
-    <row r="184" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="184" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
@@ -39329,7 +39385,7 @@
       <c r="AP184" s="13"/>
       <c r="AQ184" s="13"/>
     </row>
-    <row r="185" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="185" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K185" s="13"/>
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
@@ -39364,7 +39420,7 @@
       <c r="AP185" s="13"/>
       <c r="AQ185" s="13"/>
     </row>
-    <row r="186" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="186" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
@@ -39399,7 +39455,7 @@
       <c r="AP186" s="13"/>
       <c r="AQ186" s="13"/>
     </row>
-    <row r="187" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="187" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
@@ -39434,7 +39490,7 @@
       <c r="AP187" s="13"/>
       <c r="AQ187" s="13"/>
     </row>
-    <row r="188" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="188" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
@@ -39469,7 +39525,7 @@
       <c r="AP188" s="13"/>
       <c r="AQ188" s="13"/>
     </row>
-    <row r="189" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="189" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
@@ -39504,7 +39560,7 @@
       <c r="AP189" s="13"/>
       <c r="AQ189" s="13"/>
     </row>
-    <row r="190" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="190" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
@@ -39539,7 +39595,7 @@
       <c r="AP190" s="13"/>
       <c r="AQ190" s="13"/>
     </row>
-    <row r="191" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="191" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K191" s="13"/>
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
@@ -39574,7 +39630,7 @@
       <c r="AP191" s="13"/>
       <c r="AQ191" s="13"/>
     </row>
-    <row r="192" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="192" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K192" s="13"/>
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
@@ -39609,7 +39665,7 @@
       <c r="AP192" s="13"/>
       <c r="AQ192" s="13"/>
     </row>
-    <row r="193" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="193" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K193" s="13"/>
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
@@ -39644,7 +39700,7 @@
       <c r="AP193" s="13"/>
       <c r="AQ193" s="13"/>
     </row>
-    <row r="194" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="194" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K194" s="13"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
@@ -39679,7 +39735,7 @@
       <c r="AP194" s="13"/>
       <c r="AQ194" s="13"/>
     </row>
-    <row r="195" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="195" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K195" s="13"/>
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
@@ -39714,7 +39770,7 @@
       <c r="AP195" s="13"/>
       <c r="AQ195" s="13"/>
     </row>
-    <row r="196" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="196" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K196" s="13"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
@@ -39749,7 +39805,7 @@
       <c r="AP196" s="13"/>
       <c r="AQ196" s="13"/>
     </row>
-    <row r="197" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="197" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K197" s="13"/>
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
@@ -39784,7 +39840,7 @@
       <c r="AP197" s="13"/>
       <c r="AQ197" s="13"/>
     </row>
-    <row r="198" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="198" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
@@ -39819,7 +39875,7 @@
       <c r="AP198" s="13"/>
       <c r="AQ198" s="13"/>
     </row>
-    <row r="199" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="199" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K199" s="13"/>
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
@@ -39854,7 +39910,7 @@
       <c r="AP199" s="13"/>
       <c r="AQ199" s="13"/>
     </row>
-    <row r="200" spans="11:43" x14ac:dyDescent="0.3">
+    <row r="200" spans="11:43" x14ac:dyDescent="0.2">
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
@@ -39907,14 +39963,14 @@
       <selection pane="bottomRight" activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="8" width="4.58203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="2.58203125" style="2"/>
+    <col min="2" max="8" width="4.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39940,7 +39996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>18132</v>
       </c>
@@ -39966,7 +40022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>18133</v>
       </c>
@@ -39992,7 +40048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>18134</v>
       </c>
@@ -40018,7 +40074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>18135</v>
       </c>
@@ -40044,7 +40100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>18136</v>
       </c>
@@ -40070,7 +40126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>18137</v>
       </c>
@@ -40096,7 +40152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>18138</v>
       </c>
@@ -40122,7 +40178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>18139</v>
       </c>
@@ -40148,7 +40204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>18140</v>
       </c>
@@ -40174,7 +40230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>18141</v>
       </c>
@@ -40200,7 +40256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>18142</v>
       </c>
@@ -40226,7 +40282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18143</v>
       </c>
@@ -40252,7 +40308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>18144</v>
       </c>
@@ -40278,7 +40334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>18145</v>
       </c>
@@ -40304,7 +40360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>18146</v>
       </c>
@@ -40330,7 +40386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>18147</v>
       </c>
@@ -40356,7 +40412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18148</v>
       </c>
@@ -40382,7 +40438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18149</v>
       </c>
@@ -40408,7 +40464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18150</v>
       </c>
@@ -40434,7 +40490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18151</v>
       </c>
@@ -40460,7 +40516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18152</v>
       </c>
@@ -40486,7 +40542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>18153</v>
       </c>
@@ -40512,7 +40568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>19001</v>
       </c>
@@ -40538,7 +40594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>19002</v>
       </c>
@@ -40564,7 +40620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>19003</v>
       </c>
@@ -40590,7 +40646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>19004</v>
       </c>
@@ -40616,7 +40672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19005</v>
       </c>
@@ -40642,7 +40698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>19006</v>
       </c>
@@ -40668,7 +40724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19007</v>
       </c>
@@ -40694,7 +40750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>19008</v>
       </c>
@@ -40720,7 +40776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>19009</v>
       </c>
@@ -40746,7 +40802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>19010</v>
       </c>
@@ -40772,7 +40828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>19011</v>
       </c>
@@ -40798,7 +40854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>19012</v>
       </c>
@@ -40824,7 +40880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>19013</v>
       </c>
@@ -40850,7 +40906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>19014</v>
       </c>
@@ -40876,7 +40932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>19015</v>
       </c>
@@ -40902,7 +40958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>19016</v>
       </c>
@@ -40928,7 +40984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>19017</v>
       </c>
@@ -40954,7 +41010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>19018</v>
       </c>
@@ -40980,7 +41036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>19019</v>
       </c>
@@ -41006,7 +41062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>19020</v>
       </c>
@@ -41032,7 +41088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>19021</v>
       </c>
@@ -41058,7 +41114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>19022</v>
       </c>
@@ -41084,7 +41140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>19023</v>
       </c>
@@ -41110,7 +41166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>19024</v>
       </c>
@@ -41136,7 +41192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>19025</v>
       </c>
@@ -41162,7 +41218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>19026</v>
       </c>
@@ -41188,7 +41244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>19027</v>
       </c>
@@ -41214,7 +41270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>19028</v>
       </c>
@@ -41240,7 +41296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>19029</v>
       </c>
@@ -41266,7 +41322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>19030</v>
       </c>
@@ -41292,7 +41348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>19031</v>
       </c>
@@ -41318,7 +41374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>19032</v>
       </c>
@@ -41344,7 +41400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>19033</v>
       </c>
@@ -41370,7 +41426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>19034</v>
       </c>
@@ -41396,7 +41452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>19035</v>
       </c>
@@ -41422,7 +41478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>19036</v>
       </c>
@@ -41448,7 +41504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>19037</v>
       </c>
@@ -41474,7 +41530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>19038</v>
       </c>
@@ -41500,7 +41556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>19039</v>
       </c>
@@ -41526,7 +41582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>19040</v>
       </c>
@@ -41552,7 +41608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>19041</v>
       </c>
@@ -41578,7 +41634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>19042</v>
       </c>
@@ -41604,7 +41660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>19043</v>
       </c>
@@ -41630,7 +41686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>19044</v>
       </c>
@@ -41656,7 +41712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>19045</v>
       </c>
@@ -41682,7 +41738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>19046</v>
       </c>
@@ -41708,7 +41764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>19047</v>
       </c>
@@ -41734,7 +41790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>19048</v>
       </c>
@@ -41760,7 +41816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>19049</v>
       </c>
@@ -41786,7 +41842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>19050</v>
       </c>
@@ -41812,7 +41868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>19051</v>
       </c>
@@ -41838,7 +41894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>19052</v>
       </c>
@@ -41864,7 +41920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>19053</v>
       </c>
@@ -41890,7 +41946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>19054</v>
       </c>
@@ -41916,7 +41972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>19055</v>
       </c>
@@ -41942,7 +41998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>19056</v>
       </c>
@@ -41968,7 +42024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>19057</v>
       </c>
@@ -41994,7 +42050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>19058</v>
       </c>
@@ -42020,7 +42076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>19059</v>
       </c>
@@ -42046,7 +42102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>19060</v>
       </c>
@@ -42072,7 +42128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>19061</v>
       </c>
@@ -42098,7 +42154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>19062</v>
       </c>
@@ -42124,7 +42180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>19063</v>
       </c>
@@ -42150,7 +42206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>19064</v>
       </c>
@@ -42176,7 +42232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>19065</v>
       </c>
@@ -42202,7 +42258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>19066</v>
       </c>
@@ -42228,7 +42284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>19067</v>
       </c>
@@ -42254,7 +42310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>19068</v>
       </c>
@@ -42280,7 +42336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>19069</v>
       </c>
@@ -42306,7 +42362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>19070</v>
       </c>
@@ -42332,7 +42388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>19071</v>
       </c>
@@ -42358,7 +42414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>19072</v>
       </c>
@@ -42384,7 +42440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>19073</v>
       </c>
@@ -42410,7 +42466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>19074</v>
       </c>
@@ -42436,7 +42492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>19075</v>
       </c>
@@ -42462,7 +42518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>19076</v>
       </c>
@@ -42488,7 +42544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>19077</v>
       </c>
@@ -42500,7 +42556,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>19078</v>
       </c>
@@ -42512,7 +42568,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>19079</v>
       </c>
@@ -42524,7 +42580,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>19080</v>
       </c>
@@ -42536,7 +42592,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>19081</v>
       </c>
@@ -42548,7 +42604,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>19082</v>
       </c>
@@ -42560,7 +42616,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>19083</v>
       </c>
@@ -42572,7 +42628,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>19084</v>
       </c>
@@ -42584,7 +42640,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -42594,7 +42650,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -42604,7 +42660,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -42614,7 +42670,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" ht="12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -42624,7 +42680,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -42634,7 +42690,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -42644,7 +42700,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -42654,7 +42710,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -42664,7 +42720,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -42674,7 +42730,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -42684,7 +42740,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="124" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -42745,7 +42801,7 @@
       <c r="BF124" s="2"/>
       <c r="BG124" s="2"/>
     </row>
-    <row r="125" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -42806,7 +42862,7 @@
       <c r="BF125" s="2"/>
       <c r="BG125" s="2"/>
     </row>
-    <row r="126" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -42867,7 +42923,7 @@
       <c r="BF126" s="2"/>
       <c r="BG126" s="2"/>
     </row>
-    <row r="127" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -42928,7 +42984,7 @@
       <c r="BF127" s="2"/>
       <c r="BG127" s="2"/>
     </row>
-    <row r="128" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -42989,7 +43045,7 @@
       <c r="BF128" s="2"/>
       <c r="BG128" s="2"/>
     </row>
-    <row r="129" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -43050,7 +43106,7 @@
       <c r="BF129" s="2"/>
       <c r="BG129" s="2"/>
     </row>
-    <row r="130" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -43111,7 +43167,7 @@
       <c r="BF130" s="2"/>
       <c r="BG130" s="2"/>
     </row>
-    <row r="131" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -43172,7 +43228,7 @@
       <c r="BF131" s="2"/>
       <c r="BG131" s="2"/>
     </row>
-    <row r="132" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -43233,7 +43289,7 @@
       <c r="BF132" s="2"/>
       <c r="BG132" s="2"/>
     </row>
-    <row r="133" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -43294,7 +43350,7 @@
       <c r="BF133" s="2"/>
       <c r="BG133" s="2"/>
     </row>
-    <row r="134" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -43355,7 +43411,7 @@
       <c r="BF134" s="2"/>
       <c r="BG134" s="2"/>
     </row>
-    <row r="135" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -43416,7 +43472,7 @@
       <c r="BF135" s="2"/>
       <c r="BG135" s="2"/>
     </row>
-    <row r="136" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -43477,7 +43533,7 @@
       <c r="BF136" s="2"/>
       <c r="BG136" s="2"/>
     </row>
-    <row r="137" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -43538,7 +43594,7 @@
       <c r="BF137" s="2"/>
       <c r="BG137" s="2"/>
     </row>
-    <row r="138" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -43599,7 +43655,7 @@
       <c r="BF138" s="2"/>
       <c r="BG138" s="2"/>
     </row>
-    <row r="139" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -43660,7 +43716,7 @@
       <c r="BF139" s="2"/>
       <c r="BG139" s="2"/>
     </row>
-    <row r="140" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -43721,7 +43777,7 @@
       <c r="BF140" s="2"/>
       <c r="BG140" s="2"/>
     </row>
-    <row r="141" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -43782,7 +43838,7 @@
       <c r="BF141" s="2"/>
       <c r="BG141" s="2"/>
     </row>
-    <row r="142" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -43843,7 +43899,7 @@
       <c r="BF142" s="2"/>
       <c r="BG142" s="2"/>
     </row>
-    <row r="143" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -43904,7 +43960,7 @@
       <c r="BF143" s="2"/>
       <c r="BG143" s="2"/>
     </row>
-    <row r="144" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -43965,7 +44021,7 @@
       <c r="BF144" s="2"/>
       <c r="BG144" s="2"/>
     </row>
-    <row r="145" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -44026,7 +44082,7 @@
       <c r="BF145" s="2"/>
       <c r="BG145" s="2"/>
     </row>
-    <row r="146" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -44087,7 +44143,7 @@
       <c r="BF146" s="2"/>
       <c r="BG146" s="2"/>
     </row>
-    <row r="147" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -44148,7 +44204,7 @@
       <c r="BF147" s="2"/>
       <c r="BG147" s="2"/>
     </row>
-    <row r="148" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -44209,7 +44265,7 @@
       <c r="BF148" s="2"/>
       <c r="BG148" s="2"/>
     </row>
-    <row r="149" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -44270,7 +44326,7 @@
       <c r="BF149" s="2"/>
       <c r="BG149" s="2"/>
     </row>
-    <row r="150" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -44331,7 +44387,7 @@
       <c r="BF150" s="2"/>
       <c r="BG150" s="2"/>
     </row>
-    <row r="151" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -44392,7 +44448,7 @@
       <c r="BF151" s="2"/>
       <c r="BG151" s="2"/>
     </row>
-    <row r="152" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -44453,7 +44509,7 @@
       <c r="BF152" s="2"/>
       <c r="BG152" s="2"/>
     </row>
-    <row r="153" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -44514,7 +44570,7 @@
       <c r="BF153" s="2"/>
       <c r="BG153" s="2"/>
     </row>
-    <row r="154" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -44575,7 +44631,7 @@
       <c r="BF154" s="2"/>
       <c r="BG154" s="2"/>
     </row>
-    <row r="155" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -44636,7 +44692,7 @@
       <c r="BF155" s="2"/>
       <c r="BG155" s="2"/>
     </row>
-    <row r="156" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -44697,7 +44753,7 @@
       <c r="BF156" s="2"/>
       <c r="BG156" s="2"/>
     </row>
-    <row r="157" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -44758,7 +44814,7 @@
       <c r="BF157" s="2"/>
       <c r="BG157" s="2"/>
     </row>
-    <row r="158" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -44819,7 +44875,7 @@
       <c r="BF158" s="2"/>
       <c r="BG158" s="2"/>
     </row>
-    <row r="159" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -44880,7 +44936,7 @@
       <c r="BF159" s="2"/>
       <c r="BG159" s="2"/>
     </row>
-    <row r="160" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -44941,7 +44997,7 @@
       <c r="BF160" s="2"/>
       <c r="BG160" s="2"/>
     </row>
-    <row r="161" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -45002,7 +45058,7 @@
       <c r="BF161" s="2"/>
       <c r="BG161" s="2"/>
     </row>
-    <row r="162" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -45063,7 +45119,7 @@
       <c r="BF162" s="2"/>
       <c r="BG162" s="2"/>
     </row>
-    <row r="163" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -45124,7 +45180,7 @@
       <c r="BF163" s="2"/>
       <c r="BG163" s="2"/>
     </row>
-    <row r="164" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -45185,7 +45241,7 @@
       <c r="BF164" s="2"/>
       <c r="BG164" s="2"/>
     </row>
-    <row r="165" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -45246,7 +45302,7 @@
       <c r="BF165" s="2"/>
       <c r="BG165" s="2"/>
     </row>
-    <row r="166" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -45307,7 +45363,7 @@
       <c r="BF166" s="2"/>
       <c r="BG166" s="2"/>
     </row>
-    <row r="167" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -45368,7 +45424,7 @@
       <c r="BF167" s="2"/>
       <c r="BG167" s="2"/>
     </row>
-    <row r="168" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -45429,7 +45485,7 @@
       <c r="BF168" s="2"/>
       <c r="BG168" s="2"/>
     </row>
-    <row r="169" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -45490,7 +45546,7 @@
       <c r="BF169" s="2"/>
       <c r="BG169" s="2"/>
     </row>
-    <row r="170" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -45551,7 +45607,7 @@
       <c r="BF170" s="2"/>
       <c r="BG170" s="2"/>
     </row>
-    <row r="171" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -45612,7 +45668,7 @@
       <c r="BF171" s="2"/>
       <c r="BG171" s="2"/>
     </row>
-    <row r="172" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -45673,7 +45729,7 @@
       <c r="BF172" s="2"/>
       <c r="BG172" s="2"/>
     </row>
-    <row r="173" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -45734,7 +45790,7 @@
       <c r="BF173" s="2"/>
       <c r="BG173" s="2"/>
     </row>
-    <row r="174" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -45795,7 +45851,7 @@
       <c r="BF174" s="2"/>
       <c r="BG174" s="2"/>
     </row>
-    <row r="175" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -45856,7 +45912,7 @@
       <c r="BF175" s="2"/>
       <c r="BG175" s="2"/>
     </row>
-    <row r="176" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -45917,7 +45973,7 @@
       <c r="BF176" s="2"/>
       <c r="BG176" s="2"/>
     </row>
-    <row r="177" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -45978,7 +46034,7 @@
       <c r="BF177" s="2"/>
       <c r="BG177" s="2"/>
     </row>
-    <row r="178" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -46039,7 +46095,7 @@
       <c r="BF178" s="2"/>
       <c r="BG178" s="2"/>
     </row>
-    <row r="179" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -46100,7 +46156,7 @@
       <c r="BF179" s="2"/>
       <c r="BG179" s="2"/>
     </row>
-    <row r="180" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -46161,7 +46217,7 @@
       <c r="BF180" s="2"/>
       <c r="BG180" s="2"/>
     </row>
-    <row r="181" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -46222,7 +46278,7 @@
       <c r="BF181" s="2"/>
       <c r="BG181" s="2"/>
     </row>
-    <row r="182" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -46283,7 +46339,7 @@
       <c r="BF182" s="2"/>
       <c r="BG182" s="2"/>
     </row>
-    <row r="183" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -46344,7 +46400,7 @@
       <c r="BF183" s="2"/>
       <c r="BG183" s="2"/>
     </row>
-    <row r="184" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -46405,7 +46461,7 @@
       <c r="BF184" s="2"/>
       <c r="BG184" s="2"/>
     </row>
-    <row r="185" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -46466,7 +46522,7 @@
       <c r="BF185" s="2"/>
       <c r="BG185" s="2"/>
     </row>
-    <row r="186" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -46527,7 +46583,7 @@
       <c r="BF186" s="2"/>
       <c r="BG186" s="2"/>
     </row>
-    <row r="187" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -46588,7 +46644,7 @@
       <c r="BF187" s="2"/>
       <c r="BG187" s="2"/>
     </row>
-    <row r="188" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -46649,7 +46705,7 @@
       <c r="BF188" s="2"/>
       <c r="BG188" s="2"/>
     </row>
-    <row r="189" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -46710,7 +46766,7 @@
       <c r="BF189" s="2"/>
       <c r="BG189" s="2"/>
     </row>
-    <row r="190" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -46771,7 +46827,7 @@
       <c r="BF190" s="2"/>
       <c r="BG190" s="2"/>
     </row>
-    <row r="191" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -46832,7 +46888,7 @@
       <c r="BF191" s="2"/>
       <c r="BG191" s="2"/>
     </row>
-    <row r="192" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -46893,7 +46949,7 @@
       <c r="BF192" s="2"/>
       <c r="BG192" s="2"/>
     </row>
-    <row r="193" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -46954,7 +47010,7 @@
       <c r="BF193" s="2"/>
       <c r="BG193" s="2"/>
     </row>
-    <row r="194" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -47015,7 +47071,7 @@
       <c r="BF194" s="2"/>
       <c r="BG194" s="2"/>
     </row>
-    <row r="195" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:59" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -47094,24 +47150,24 @@
       <selection pane="bottomRight" activeCell="X113" sqref="X113:Y113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="10" width="2.58203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.58203125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="2.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.58203125" style="41" customWidth="1"/>
-    <col min="16" max="16" width="2.58203125" style="45" customWidth="1"/>
-    <col min="17" max="17" width="2.58203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="2.58203125" style="6" customWidth="1"/>
-    <col min="19" max="51" width="2.58203125" style="10" customWidth="1"/>
-    <col min="52" max="67" width="2.58203125" style="11" customWidth="1"/>
-    <col min="68" max="16384" width="2.58203125" style="2"/>
+    <col min="2" max="10" width="2.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="2.625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="2.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="2.625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="6" customWidth="1"/>
+    <col min="19" max="51" width="2.625" style="10" customWidth="1"/>
+    <col min="52" max="67" width="2.625" style="11" customWidth="1"/>
+    <col min="68" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47310,7 +47366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -47382,7 +47438,7 @@
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
     </row>
-    <row r="3" spans="1:67" ht="12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>18128</v>
       </c>
@@ -47538,7 +47594,7 @@
       <c r="BN3" s="18"/>
       <c r="BO3" s="18"/>
     </row>
-    <row r="4" spans="1:67" ht="12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>18129</v>
       </c>
@@ -47694,7 +47750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>18130</v>
       </c>
@@ -47850,7 +47906,7 @@
       <c r="BN5" s="18"/>
       <c r="BO5" s="18"/>
     </row>
-    <row r="6" spans="1:67" ht="12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>18131</v>
       </c>
@@ -48006,7 +48062,7 @@
       <c r="BN6" s="18"/>
       <c r="BO6" s="18"/>
     </row>
-    <row r="7" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>18132</v>
       </c>
@@ -48129,7 +48185,7 @@
       <c r="BN7" s="9"/>
       <c r="BO7" s="9"/>
     </row>
-    <row r="8" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>18133</v>
       </c>
@@ -48252,7 +48308,7 @@
       <c r="BN8" s="9"/>
       <c r="BO8" s="9"/>
     </row>
-    <row r="9" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>18134</v>
       </c>
@@ -48363,7 +48419,7 @@
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
     </row>
-    <row r="10" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>18135</v>
       </c>
@@ -48474,7 +48530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>18136</v>
       </c>
@@ -48585,7 +48641,7 @@
       <c r="BN11" s="9"/>
       <c r="BO11" s="9"/>
     </row>
-    <row r="12" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>18137</v>
       </c>
@@ -48696,7 +48752,7 @@
       <c r="BN12" s="9"/>
       <c r="BO12" s="9"/>
     </row>
-    <row r="13" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18138</v>
       </c>
@@ -48807,7 +48863,7 @@
       <c r="BN13" s="9"/>
       <c r="BO13" s="9"/>
     </row>
-    <row r="14" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>18139</v>
       </c>
@@ -48918,7 +48974,7 @@
       </c>
       <c r="BO14" s="9"/>
     </row>
-    <row r="15" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>18140</v>
       </c>
@@ -49029,7 +49085,7 @@
       <c r="BN15" s="9"/>
       <c r="BO15" s="9"/>
     </row>
-    <row r="16" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>18141</v>
       </c>
@@ -49140,7 +49196,7 @@
       <c r="BN16" s="9"/>
       <c r="BO16" s="9"/>
     </row>
-    <row r="17" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>18142</v>
       </c>
@@ -49251,7 +49307,7 @@
       <c r="BN17" s="9"/>
       <c r="BO17" s="9"/>
     </row>
-    <row r="18" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18143</v>
       </c>
@@ -49362,7 +49418,7 @@
       <c r="BN18" s="9"/>
       <c r="BO18" s="9"/>
     </row>
-    <row r="19" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18144</v>
       </c>
@@ -49473,7 +49529,7 @@
       <c r="BN19" s="9"/>
       <c r="BO19" s="9"/>
     </row>
-    <row r="20" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18145</v>
       </c>
@@ -49584,7 +49640,7 @@
       <c r="BN20" s="9"/>
       <c r="BO20" s="9"/>
     </row>
-    <row r="21" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18146</v>
       </c>
@@ -49695,7 +49751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18147</v>
       </c>
@@ -49806,7 +49862,7 @@
       <c r="BN22" s="9"/>
       <c r="BO22" s="9"/>
     </row>
-    <row r="23" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>18148</v>
       </c>
@@ -49917,7 +49973,7 @@
       <c r="BN23" s="9"/>
       <c r="BO23" s="9"/>
     </row>
-    <row r="24" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>18149</v>
       </c>
@@ -50028,7 +50084,7 @@
       <c r="BN24" s="9"/>
       <c r="BO24" s="9"/>
     </row>
-    <row r="25" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>18150</v>
       </c>
@@ -50139,7 +50195,7 @@
       <c r="BN25" s="9"/>
       <c r="BO25" s="9"/>
     </row>
-    <row r="26" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>18151</v>
       </c>
@@ -50250,7 +50306,7 @@
       </c>
       <c r="BO26" s="9"/>
     </row>
-    <row r="27" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18152</v>
       </c>
@@ -50361,7 +50417,7 @@
       <c r="BN27" s="9"/>
       <c r="BO27" s="9"/>
     </row>
-    <row r="28" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>18153</v>
       </c>
@@ -50472,7 +50528,7 @@
       <c r="BN28" s="9"/>
       <c r="BO28" s="9"/>
     </row>
-    <row r="29" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>19001</v>
       </c>
@@ -50583,7 +50639,7 @@
       </c>
       <c r="BO29" s="9"/>
     </row>
-    <row r="30" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19002</v>
       </c>
@@ -50694,7 +50750,7 @@
       <c r="BN30" s="9"/>
       <c r="BO30" s="9"/>
     </row>
-    <row r="31" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>19003</v>
       </c>
@@ -50805,7 +50861,7 @@
       <c r="BN31" s="9"/>
       <c r="BO31" s="9"/>
     </row>
-    <row r="32" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>19004</v>
       </c>
@@ -50916,7 +50972,7 @@
       <c r="BN32" s="9"/>
       <c r="BO32" s="9"/>
     </row>
-    <row r="33" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>19005</v>
       </c>
@@ -51027,7 +51083,7 @@
       <c r="BN33" s="9"/>
       <c r="BO33" s="9"/>
     </row>
-    <row r="34" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>19006</v>
       </c>
@@ -51138,7 +51194,7 @@
       <c r="BN34" s="9"/>
       <c r="BO34" s="9"/>
     </row>
-    <row r="35" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>19007</v>
       </c>
@@ -51249,7 +51305,7 @@
       </c>
       <c r="BO35" s="9"/>
     </row>
-    <row r="36" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>19008</v>
       </c>
@@ -51360,7 +51416,7 @@
       <c r="BN36" s="9"/>
       <c r="BO36" s="9"/>
     </row>
-    <row r="37" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>19009</v>
       </c>
@@ -51471,7 +51527,7 @@
       </c>
       <c r="BO37" s="9"/>
     </row>
-    <row r="38" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>19010</v>
       </c>
@@ -51582,7 +51638,7 @@
       <c r="BN38" s="9"/>
       <c r="BO38" s="9"/>
     </row>
-    <row r="39" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>19011</v>
       </c>
@@ -51693,7 +51749,7 @@
       <c r="BN39" s="9"/>
       <c r="BO39" s="9"/>
     </row>
-    <row r="40" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>19012</v>
       </c>
@@ -51804,7 +51860,7 @@
       <c r="BN40" s="9"/>
       <c r="BO40" s="9"/>
     </row>
-    <row r="41" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>19013</v>
       </c>
@@ -51915,7 +51971,7 @@
       <c r="BN41" s="9"/>
       <c r="BO41" s="9"/>
     </row>
-    <row r="42" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>19014</v>
       </c>
@@ -52026,7 +52082,7 @@
       <c r="BN42" s="9"/>
       <c r="BO42" s="9"/>
     </row>
-    <row r="43" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>19015</v>
       </c>
@@ -52137,7 +52193,7 @@
       <c r="BN43" s="9"/>
       <c r="BO43" s="9"/>
     </row>
-    <row r="44" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>19016</v>
       </c>
@@ -52248,7 +52304,7 @@
       <c r="BN44" s="9"/>
       <c r="BO44" s="9"/>
     </row>
-    <row r="45" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>19017</v>
       </c>
@@ -52359,7 +52415,7 @@
       <c r="BN45" s="9"/>
       <c r="BO45" s="9"/>
     </row>
-    <row r="46" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>19018</v>
       </c>
@@ -52470,7 +52526,7 @@
       <c r="BN46" s="9"/>
       <c r="BO46" s="9"/>
     </row>
-    <row r="47" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>19019</v>
       </c>
@@ -52581,7 +52637,7 @@
       <c r="BN47" s="9"/>
       <c r="BO47" s="9"/>
     </row>
-    <row r="48" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>19020</v>
       </c>
@@ -52692,7 +52748,7 @@
       <c r="BN48" s="9"/>
       <c r="BO48" s="9"/>
     </row>
-    <row r="49" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>19021</v>
       </c>
@@ -52803,7 +52859,7 @@
       <c r="BN49" s="9"/>
       <c r="BO49" s="9"/>
     </row>
-    <row r="50" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>19022</v>
       </c>
@@ -52914,7 +52970,7 @@
       <c r="BN50" s="9"/>
       <c r="BO50" s="9"/>
     </row>
-    <row r="51" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>19023</v>
       </c>
@@ -53025,7 +53081,7 @@
       <c r="BN51" s="9"/>
       <c r="BO51" s="9"/>
     </row>
-    <row r="52" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>19024</v>
       </c>
@@ -53136,7 +53192,7 @@
       <c r="BN52" s="9"/>
       <c r="BO52" s="9"/>
     </row>
-    <row r="53" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>19025</v>
       </c>
@@ -53247,7 +53303,7 @@
       <c r="BN53" s="9"/>
       <c r="BO53" s="9"/>
     </row>
-    <row r="54" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>19026</v>
       </c>
@@ -53358,7 +53414,7 @@
       <c r="BN54" s="9"/>
       <c r="BO54" s="9"/>
     </row>
-    <row r="55" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>19027</v>
       </c>
@@ -53469,7 +53525,7 @@
       <c r="BN55" s="9"/>
       <c r="BO55" s="9"/>
     </row>
-    <row r="56" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>19028</v>
       </c>
@@ -53580,7 +53636,7 @@
       <c r="BN56" s="9"/>
       <c r="BO56" s="9"/>
     </row>
-    <row r="57" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>19029</v>
       </c>
@@ -53691,7 +53747,7 @@
       <c r="BN57" s="9"/>
       <c r="BO57" s="9"/>
     </row>
-    <row r="58" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>19030</v>
       </c>
@@ -53802,7 +53858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>19031</v>
       </c>
@@ -53913,7 +53969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>19032</v>
       </c>
@@ -54024,7 +54080,7 @@
       <c r="BN60" s="9"/>
       <c r="BO60" s="9"/>
     </row>
-    <row r="61" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>19033</v>
       </c>
@@ -54135,7 +54191,7 @@
       </c>
       <c r="BO61" s="9"/>
     </row>
-    <row r="62" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>19034</v>
       </c>
@@ -54246,7 +54302,7 @@
       <c r="BN62" s="9"/>
       <c r="BO62" s="9"/>
     </row>
-    <row r="63" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>19035</v>
       </c>
@@ -54357,7 +54413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>19036</v>
       </c>
@@ -54468,7 +54524,7 @@
       <c r="BN64" s="9"/>
       <c r="BO64" s="9"/>
     </row>
-    <row r="65" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>19037</v>
       </c>
@@ -54579,7 +54635,7 @@
       <c r="BN65" s="9"/>
       <c r="BO65" s="9"/>
     </row>
-    <row r="66" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>19038</v>
       </c>
@@ -54690,7 +54746,7 @@
       <c r="BN66" s="9"/>
       <c r="BO66" s="9"/>
     </row>
-    <row r="67" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>19039</v>
       </c>
@@ -54801,7 +54857,7 @@
       <c r="BN67" s="9"/>
       <c r="BO67" s="9"/>
     </row>
-    <row r="68" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>19040</v>
       </c>
@@ -54912,7 +54968,7 @@
       <c r="BN68" s="9"/>
       <c r="BO68" s="9"/>
     </row>
-    <row r="69" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>19041</v>
       </c>
@@ -55023,7 +55079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>19042</v>
       </c>
@@ -55134,7 +55190,7 @@
       <c r="BN70" s="9"/>
       <c r="BO70" s="9"/>
     </row>
-    <row r="71" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>19043</v>
       </c>
@@ -55245,7 +55301,7 @@
       <c r="BN71" s="9"/>
       <c r="BO71" s="9"/>
     </row>
-    <row r="72" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>19044</v>
       </c>
@@ -55356,7 +55412,7 @@
       <c r="BN72" s="9"/>
       <c r="BO72" s="9"/>
     </row>
-    <row r="73" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>19045</v>
       </c>
@@ -55467,7 +55523,7 @@
       <c r="BN73" s="9"/>
       <c r="BO73" s="9"/>
     </row>
-    <row r="74" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>19046</v>
       </c>
@@ -55578,7 +55634,7 @@
       <c r="BN74" s="9"/>
       <c r="BO74" s="9"/>
     </row>
-    <row r="75" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>19047</v>
       </c>
@@ -55689,7 +55745,7 @@
       <c r="BN75" s="9"/>
       <c r="BO75" s="9"/>
     </row>
-    <row r="76" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>19048</v>
       </c>
@@ -55800,7 +55856,7 @@
       <c r="BN76" s="9"/>
       <c r="BO76" s="9"/>
     </row>
-    <row r="77" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>19049</v>
       </c>
@@ -55923,7 +55979,7 @@
       </c>
       <c r="BO77" s="9"/>
     </row>
-    <row r="78" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>19050</v>
       </c>
@@ -56046,7 +56102,7 @@
       <c r="BN78" s="9"/>
       <c r="BO78" s="9"/>
     </row>
-    <row r="79" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>19051</v>
       </c>
@@ -56169,7 +56225,7 @@
       <c r="BN79" s="9"/>
       <c r="BO79" s="9"/>
     </row>
-    <row r="80" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>19052</v>
       </c>
@@ -56292,7 +56348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>19053</v>
       </c>
@@ -56415,7 +56471,7 @@
       <c r="BN81" s="9"/>
       <c r="BO81" s="9"/>
     </row>
-    <row r="82" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>19054</v>
       </c>
@@ -56538,7 +56594,7 @@
       <c r="BN82" s="9"/>
       <c r="BO82" s="9"/>
     </row>
-    <row r="83" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>19055</v>
       </c>
@@ -56661,7 +56717,7 @@
       <c r="BN83" s="9"/>
       <c r="BO83" s="9"/>
     </row>
-    <row r="84" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>19056</v>
       </c>
@@ -56784,7 +56840,7 @@
       <c r="BN84" s="9"/>
       <c r="BO84" s="9"/>
     </row>
-    <row r="85" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>19057</v>
       </c>
@@ -56907,7 +56963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>19058</v>
       </c>
@@ -57030,7 +57086,7 @@
       <c r="BN86" s="9"/>
       <c r="BO86" s="9"/>
     </row>
-    <row r="87" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>19059</v>
       </c>
@@ -57153,7 +57209,7 @@
       <c r="BN87" s="9"/>
       <c r="BO87" s="9"/>
     </row>
-    <row r="88" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>19060</v>
       </c>
@@ -57276,7 +57332,7 @@
       <c r="BN88" s="9"/>
       <c r="BO88" s="9"/>
     </row>
-    <row r="89" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>19061</v>
       </c>
@@ -57399,7 +57455,7 @@
       <c r="BN89" s="9"/>
       <c r="BO89" s="9"/>
     </row>
-    <row r="90" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>19062</v>
       </c>
@@ -57522,7 +57578,7 @@
       <c r="BN90" s="9"/>
       <c r="BO90" s="9"/>
     </row>
-    <row r="91" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>19063</v>
       </c>
@@ -57645,7 +57701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>19064</v>
       </c>
@@ -57768,7 +57824,7 @@
       <c r="BN92" s="9"/>
       <c r="BO92" s="9"/>
     </row>
-    <row r="93" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>19065</v>
       </c>
@@ -57891,7 +57947,7 @@
       <c r="BN93" s="9"/>
       <c r="BO93" s="9"/>
     </row>
-    <row r="94" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>19066</v>
       </c>
@@ -58014,7 +58070,7 @@
       <c r="BN94" s="9"/>
       <c r="BO94" s="9"/>
     </row>
-    <row r="95" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>19067</v>
       </c>
@@ -58137,7 +58193,7 @@
       <c r="BN95" s="9"/>
       <c r="BO95" s="9"/>
     </row>
-    <row r="96" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>19068</v>
       </c>
@@ -58260,7 +58316,7 @@
       <c r="BN96" s="9"/>
       <c r="BO96" s="9"/>
     </row>
-    <row r="97" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>19069</v>
       </c>
@@ -58383,7 +58439,7 @@
       <c r="BN97" s="9"/>
       <c r="BO97" s="9"/>
     </row>
-    <row r="98" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>19070</v>
       </c>
@@ -58506,7 +58562,7 @@
       <c r="BN98" s="9"/>
       <c r="BO98" s="9"/>
     </row>
-    <row r="99" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>19071</v>
       </c>
@@ -58629,7 +58685,7 @@
       <c r="BN99" s="9"/>
       <c r="BO99" s="9"/>
     </row>
-    <row r="100" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>19072</v>
       </c>
@@ -58752,7 +58808,7 @@
       </c>
       <c r="BO100" s="9"/>
     </row>
-    <row r="101" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>19073</v>
       </c>
@@ -58875,7 +58931,7 @@
       <c r="BN101" s="9"/>
       <c r="BO101" s="9"/>
     </row>
-    <row r="102" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>19074</v>
       </c>
@@ -58998,7 +59054,7 @@
       <c r="BN102" s="9"/>
       <c r="BO102" s="9"/>
     </row>
-    <row r="103" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>19075</v>
       </c>
@@ -59121,7 +59177,7 @@
       <c r="BN103" s="9"/>
       <c r="BO103" s="9"/>
     </row>
-    <row r="104" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>19076</v>
       </c>
@@ -59244,7 +59300,7 @@
       <c r="BN104" s="9"/>
       <c r="BO104" s="9"/>
     </row>
-    <row r="105" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
@@ -59313,7 +59369,7 @@
       <c r="BN105" s="9"/>
       <c r="BO105" s="9"/>
     </row>
-    <row r="106" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>16</v>
       </c>
@@ -59426,7 +59482,7 @@
       <c r="BN106" s="9"/>
       <c r="BO106" s="9"/>
     </row>
-    <row r="107" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>19076</v>
       </c>
@@ -59524,7 +59580,7 @@
       <c r="BN107" s="9"/>
       <c r="BO107" s="9"/>
     </row>
-    <row r="108" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="1">
         <v>3</v>
@@ -59626,7 +59682,7 @@
       <c r="BN108" s="9"/>
       <c r="BO108" s="9"/>
     </row>
-    <row r="109" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>19077</v>
       </c>
@@ -59735,7 +59791,7 @@
       <c r="BN109" s="9"/>
       <c r="BO109" s="9"/>
     </row>
-    <row r="110" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -59825,7 +59881,7 @@
       <c r="BN110" s="9"/>
       <c r="BO110" s="9"/>
     </row>
-    <row r="111" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -59894,7 +59950,7 @@
       <c r="BN111" s="9"/>
       <c r="BO111" s="9"/>
     </row>
-    <row r="112" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>19080</v>
       </c>
@@ -59965,7 +60021,7 @@
       <c r="BN112" s="9"/>
       <c r="BO112" s="9"/>
     </row>
-    <row r="113" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>19081</v>
       </c>
@@ -60036,7 +60092,7 @@
       <c r="BN113" s="9"/>
       <c r="BO113" s="9"/>
     </row>
-    <row r="114" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>19082</v>
       </c>
@@ -60107,7 +60163,7 @@
       <c r="BN114" s="9"/>
       <c r="BO114" s="9"/>
     </row>
-    <row r="115" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>19083</v>
       </c>
@@ -60178,7 +60234,7 @@
       <c r="BN115" s="9"/>
       <c r="BO115" s="9"/>
     </row>
-    <row r="116" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>19084</v>
       </c>
@@ -60249,7 +60305,7 @@
       <c r="BN116" s="9"/>
       <c r="BO116" s="9"/>
     </row>
-    <row r="117" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -60318,7 +60374,7 @@
       <c r="BN117" s="9"/>
       <c r="BO117" s="9"/>
     </row>
-    <row r="118" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -60387,7 +60443,7 @@
       <c r="BN118" s="9"/>
       <c r="BO118" s="9"/>
     </row>
-    <row r="119" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -60456,7 +60512,7 @@
       <c r="BN119" s="9"/>
       <c r="BO119" s="9"/>
     </row>
-    <row r="120" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -60525,7 +60581,7 @@
       <c r="BN120" s="9"/>
       <c r="BO120" s="9"/>
     </row>
-    <row r="121" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S121" s="13"/>
       <c r="T121" s="13"/>
       <c r="U121" s="13"/>
@@ -60560,7 +60616,7 @@
       <c r="AX121" s="13"/>
       <c r="AY121" s="13"/>
     </row>
-    <row r="122" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S122" s="13"/>
       <c r="T122" s="13"/>
       <c r="U122" s="13"/>
@@ -60595,7 +60651,7 @@
       <c r="AX122" s="13"/>
       <c r="AY122" s="13"/>
     </row>
-    <row r="123" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S123" s="13"/>
       <c r="T123" s="13"/>
       <c r="U123" s="13"/>
@@ -60630,7 +60686,7 @@
       <c r="AX123" s="13"/>
       <c r="AY123" s="13"/>
     </row>
-    <row r="124" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S124" s="13"/>
       <c r="T124" s="13"/>
       <c r="U124" s="13"/>
@@ -60665,7 +60721,7 @@
       <c r="AX124" s="13"/>
       <c r="AY124" s="13"/>
     </row>
-    <row r="125" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S125" s="13"/>
       <c r="T125" s="13"/>
       <c r="U125" s="13"/>
@@ -60700,7 +60756,7 @@
       <c r="AX125" s="13"/>
       <c r="AY125" s="13"/>
     </row>
-    <row r="126" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S126" s="13"/>
       <c r="T126" s="13"/>
       <c r="U126" s="13"/>
@@ -60735,7 +60791,7 @@
       <c r="AX126" s="13"/>
       <c r="AY126" s="13"/>
     </row>
-    <row r="127" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S127" s="13"/>
       <c r="T127" s="13"/>
       <c r="U127" s="13"/>
@@ -60770,7 +60826,7 @@
       <c r="AX127" s="13"/>
       <c r="AY127" s="13"/>
     </row>
-    <row r="128" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S128" s="13"/>
       <c r="T128" s="13"/>
       <c r="U128" s="13"/>
@@ -60805,7 +60861,7 @@
       <c r="AX128" s="13"/>
       <c r="AY128" s="13"/>
     </row>
-    <row r="129" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="129" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S129" s="13"/>
       <c r="T129" s="13"/>
       <c r="U129" s="13"/>
@@ -60840,7 +60896,7 @@
       <c r="AX129" s="13"/>
       <c r="AY129" s="13"/>
     </row>
-    <row r="130" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="130" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S130" s="13"/>
       <c r="T130" s="13"/>
       <c r="U130" s="13"/>
@@ -60875,7 +60931,7 @@
       <c r="AX130" s="13"/>
       <c r="AY130" s="13"/>
     </row>
-    <row r="131" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="131" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S131" s="13"/>
       <c r="T131" s="13"/>
       <c r="U131" s="13"/>
@@ -60910,7 +60966,7 @@
       <c r="AX131" s="13"/>
       <c r="AY131" s="13"/>
     </row>
-    <row r="132" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="132" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S132" s="13"/>
       <c r="T132" s="13"/>
       <c r="U132" s="13"/>
@@ -60945,7 +61001,7 @@
       <c r="AX132" s="13"/>
       <c r="AY132" s="13"/>
     </row>
-    <row r="133" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="133" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S133" s="13"/>
       <c r="T133" s="13"/>
       <c r="U133" s="13"/>
@@ -60980,7 +61036,7 @@
       <c r="AX133" s="13"/>
       <c r="AY133" s="13"/>
     </row>
-    <row r="134" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="134" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S134" s="13"/>
       <c r="T134" s="13"/>
       <c r="U134" s="13"/>
@@ -61015,7 +61071,7 @@
       <c r="AX134" s="13"/>
       <c r="AY134" s="13"/>
     </row>
-    <row r="135" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="135" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S135" s="13"/>
       <c r="T135" s="13"/>
       <c r="U135" s="13"/>
@@ -61050,7 +61106,7 @@
       <c r="AX135" s="13"/>
       <c r="AY135" s="13"/>
     </row>
-    <row r="136" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="136" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S136" s="13"/>
       <c r="T136" s="13"/>
       <c r="U136" s="13"/>
@@ -61085,7 +61141,7 @@
       <c r="AX136" s="13"/>
       <c r="AY136" s="13"/>
     </row>
-    <row r="137" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="137" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S137" s="13"/>
       <c r="T137" s="13"/>
       <c r="U137" s="13"/>
@@ -61120,7 +61176,7 @@
       <c r="AX137" s="13"/>
       <c r="AY137" s="13"/>
     </row>
-    <row r="138" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="138" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S138" s="13"/>
       <c r="T138" s="13"/>
       <c r="U138" s="13"/>
@@ -61155,7 +61211,7 @@
       <c r="AX138" s="13"/>
       <c r="AY138" s="13"/>
     </row>
-    <row r="139" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="139" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S139" s="13"/>
       <c r="T139" s="13"/>
       <c r="U139" s="13"/>
@@ -61190,7 +61246,7 @@
       <c r="AX139" s="13"/>
       <c r="AY139" s="13"/>
     </row>
-    <row r="140" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="140" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S140" s="13"/>
       <c r="T140" s="13"/>
       <c r="U140" s="13"/>
@@ -61225,7 +61281,7 @@
       <c r="AX140" s="13"/>
       <c r="AY140" s="13"/>
     </row>
-    <row r="141" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="141" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S141" s="13"/>
       <c r="T141" s="13"/>
       <c r="U141" s="13"/>
@@ -61260,7 +61316,7 @@
       <c r="AX141" s="13"/>
       <c r="AY141" s="13"/>
     </row>
-    <row r="142" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="142" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S142" s="13"/>
       <c r="T142" s="13"/>
       <c r="U142" s="13"/>
@@ -61295,7 +61351,7 @@
       <c r="AX142" s="13"/>
       <c r="AY142" s="13"/>
     </row>
-    <row r="143" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="143" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S143" s="13"/>
       <c r="T143" s="13"/>
       <c r="U143" s="13"/>
@@ -61330,7 +61386,7 @@
       <c r="AX143" s="13"/>
       <c r="AY143" s="13"/>
     </row>
-    <row r="144" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="144" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
       <c r="U144" s="13"/>
@@ -61365,7 +61421,7 @@
       <c r="AX144" s="13"/>
       <c r="AY144" s="13"/>
     </row>
-    <row r="145" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="145" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S145" s="13"/>
       <c r="T145" s="13"/>
       <c r="U145" s="13"/>
@@ -61400,7 +61456,7 @@
       <c r="AX145" s="13"/>
       <c r="AY145" s="13"/>
     </row>
-    <row r="146" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="146" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S146" s="13"/>
       <c r="T146" s="13"/>
       <c r="U146" s="13"/>
@@ -61435,7 +61491,7 @@
       <c r="AX146" s="13"/>
       <c r="AY146" s="13"/>
     </row>
-    <row r="147" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="147" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S147" s="13"/>
       <c r="T147" s="13"/>
       <c r="U147" s="13"/>
@@ -61470,7 +61526,7 @@
       <c r="AX147" s="13"/>
       <c r="AY147" s="13"/>
     </row>
-    <row r="148" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="148" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S148" s="13"/>
       <c r="T148" s="13"/>
       <c r="U148" s="13"/>
@@ -61505,7 +61561,7 @@
       <c r="AX148" s="13"/>
       <c r="AY148" s="13"/>
     </row>
-    <row r="149" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="149" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S149" s="13"/>
       <c r="T149" s="13"/>
       <c r="U149" s="13"/>
@@ -61540,7 +61596,7 @@
       <c r="AX149" s="13"/>
       <c r="AY149" s="13"/>
     </row>
-    <row r="150" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="150" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S150" s="13"/>
       <c r="T150" s="13"/>
       <c r="U150" s="13"/>
@@ -61575,7 +61631,7 @@
       <c r="AX150" s="13"/>
       <c r="AY150" s="13"/>
     </row>
-    <row r="151" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="151" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S151" s="13"/>
       <c r="T151" s="13"/>
       <c r="U151" s="13"/>
@@ -61610,7 +61666,7 @@
       <c r="AX151" s="13"/>
       <c r="AY151" s="13"/>
     </row>
-    <row r="152" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="152" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S152" s="13"/>
       <c r="T152" s="13"/>
       <c r="U152" s="13"/>
@@ -61645,7 +61701,7 @@
       <c r="AX152" s="13"/>
       <c r="AY152" s="13"/>
     </row>
-    <row r="153" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="153" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S153" s="13"/>
       <c r="T153" s="13"/>
       <c r="U153" s="13"/>
@@ -61680,7 +61736,7 @@
       <c r="AX153" s="13"/>
       <c r="AY153" s="13"/>
     </row>
-    <row r="154" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="154" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S154" s="13"/>
       <c r="T154" s="13"/>
       <c r="U154" s="13"/>
@@ -61715,7 +61771,7 @@
       <c r="AX154" s="13"/>
       <c r="AY154" s="13"/>
     </row>
-    <row r="155" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="155" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S155" s="13"/>
       <c r="T155" s="13"/>
       <c r="U155" s="13"/>
@@ -61750,7 +61806,7 @@
       <c r="AX155" s="13"/>
       <c r="AY155" s="13"/>
     </row>
-    <row r="156" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="156" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S156" s="13"/>
       <c r="T156" s="13"/>
       <c r="U156" s="13"/>
@@ -61785,7 +61841,7 @@
       <c r="AX156" s="13"/>
       <c r="AY156" s="13"/>
     </row>
-    <row r="157" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="157" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S157" s="13"/>
       <c r="T157" s="13"/>
       <c r="U157" s="13"/>
@@ -61820,7 +61876,7 @@
       <c r="AX157" s="13"/>
       <c r="AY157" s="13"/>
     </row>
-    <row r="158" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="158" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S158" s="13"/>
       <c r="T158" s="13"/>
       <c r="U158" s="13"/>
@@ -61855,7 +61911,7 @@
       <c r="AX158" s="13"/>
       <c r="AY158" s="13"/>
     </row>
-    <row r="159" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="159" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S159" s="13"/>
       <c r="T159" s="13"/>
       <c r="U159" s="13"/>
@@ -61890,7 +61946,7 @@
       <c r="AX159" s="13"/>
       <c r="AY159" s="13"/>
     </row>
-    <row r="160" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="160" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S160" s="13"/>
       <c r="T160" s="13"/>
       <c r="U160" s="13"/>
@@ -61925,7 +61981,7 @@
       <c r="AX160" s="13"/>
       <c r="AY160" s="13"/>
     </row>
-    <row r="161" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="161" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S161" s="13"/>
       <c r="T161" s="13"/>
       <c r="U161" s="13"/>
@@ -61960,7 +62016,7 @@
       <c r="AX161" s="13"/>
       <c r="AY161" s="13"/>
     </row>
-    <row r="162" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="162" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S162" s="13"/>
       <c r="T162" s="13"/>
       <c r="U162" s="13"/>
@@ -61995,7 +62051,7 @@
       <c r="AX162" s="13"/>
       <c r="AY162" s="13"/>
     </row>
-    <row r="163" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="163" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S163" s="13"/>
       <c r="T163" s="13"/>
       <c r="U163" s="13"/>
@@ -62030,7 +62086,7 @@
       <c r="AX163" s="13"/>
       <c r="AY163" s="13"/>
     </row>
-    <row r="164" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="164" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S164" s="13"/>
       <c r="T164" s="13"/>
       <c r="U164" s="13"/>
@@ -62065,7 +62121,7 @@
       <c r="AX164" s="13"/>
       <c r="AY164" s="13"/>
     </row>
-    <row r="165" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="165" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
       <c r="U165" s="13"/>
@@ -62100,7 +62156,7 @@
       <c r="AX165" s="13"/>
       <c r="AY165" s="13"/>
     </row>
-    <row r="166" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="166" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S166" s="13"/>
       <c r="T166" s="13"/>
       <c r="U166" s="13"/>
@@ -62135,7 +62191,7 @@
       <c r="AX166" s="13"/>
       <c r="AY166" s="13"/>
     </row>
-    <row r="167" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="167" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
       <c r="U167" s="13"/>
@@ -62170,7 +62226,7 @@
       <c r="AX167" s="13"/>
       <c r="AY167" s="13"/>
     </row>
-    <row r="168" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="168" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
       <c r="U168" s="13"/>
@@ -62205,7 +62261,7 @@
       <c r="AX168" s="13"/>
       <c r="AY168" s="13"/>
     </row>
-    <row r="169" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="169" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S169" s="13"/>
       <c r="T169" s="13"/>
       <c r="U169" s="13"/>
@@ -62240,7 +62296,7 @@
       <c r="AX169" s="13"/>
       <c r="AY169" s="13"/>
     </row>
-    <row r="170" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="170" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S170" s="13"/>
       <c r="T170" s="13"/>
       <c r="U170" s="13"/>
@@ -62275,7 +62331,7 @@
       <c r="AX170" s="13"/>
       <c r="AY170" s="13"/>
     </row>
-    <row r="171" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="171" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S171" s="13"/>
       <c r="T171" s="13"/>
       <c r="U171" s="13"/>
@@ -62310,7 +62366,7 @@
       <c r="AX171" s="13"/>
       <c r="AY171" s="13"/>
     </row>
-    <row r="172" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="172" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S172" s="13"/>
       <c r="T172" s="13"/>
       <c r="U172" s="13"/>
@@ -62345,7 +62401,7 @@
       <c r="AX172" s="13"/>
       <c r="AY172" s="13"/>
     </row>
-    <row r="173" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="173" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S173" s="13"/>
       <c r="T173" s="13"/>
       <c r="U173" s="13"/>
@@ -62380,7 +62436,7 @@
       <c r="AX173" s="13"/>
       <c r="AY173" s="13"/>
     </row>
-    <row r="174" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="174" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S174" s="13"/>
       <c r="T174" s="13"/>
       <c r="U174" s="13"/>
@@ -62415,7 +62471,7 @@
       <c r="AX174" s="13"/>
       <c r="AY174" s="13"/>
     </row>
-    <row r="175" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="175" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S175" s="13"/>
       <c r="T175" s="13"/>
       <c r="U175" s="13"/>
@@ -62450,7 +62506,7 @@
       <c r="AX175" s="13"/>
       <c r="AY175" s="13"/>
     </row>
-    <row r="176" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="176" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S176" s="13"/>
       <c r="T176" s="13"/>
       <c r="U176" s="13"/>
@@ -62485,7 +62541,7 @@
       <c r="AX176" s="13"/>
       <c r="AY176" s="13"/>
     </row>
-    <row r="177" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="177" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S177" s="13"/>
       <c r="T177" s="13"/>
       <c r="U177" s="13"/>
@@ -62520,7 +62576,7 @@
       <c r="AX177" s="13"/>
       <c r="AY177" s="13"/>
     </row>
-    <row r="178" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="178" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
       <c r="U178" s="13"/>
@@ -62555,7 +62611,7 @@
       <c r="AX178" s="13"/>
       <c r="AY178" s="13"/>
     </row>
-    <row r="179" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="179" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S179" s="13"/>
       <c r="T179" s="13"/>
       <c r="U179" s="13"/>
@@ -62590,7 +62646,7 @@
       <c r="AX179" s="13"/>
       <c r="AY179" s="13"/>
     </row>
-    <row r="180" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="180" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S180" s="13"/>
       <c r="T180" s="13"/>
       <c r="U180" s="13"/>
@@ -62625,7 +62681,7 @@
       <c r="AX180" s="13"/>
       <c r="AY180" s="13"/>
     </row>
-    <row r="181" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="181" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S181" s="13"/>
       <c r="T181" s="13"/>
       <c r="U181" s="13"/>
@@ -62660,7 +62716,7 @@
       <c r="AX181" s="13"/>
       <c r="AY181" s="13"/>
     </row>
-    <row r="182" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="182" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S182" s="13"/>
       <c r="T182" s="13"/>
       <c r="U182" s="13"/>
@@ -62695,7 +62751,7 @@
       <c r="AX182" s="13"/>
       <c r="AY182" s="13"/>
     </row>
-    <row r="183" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="183" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S183" s="13"/>
       <c r="T183" s="13"/>
       <c r="U183" s="13"/>
@@ -62730,7 +62786,7 @@
       <c r="AX183" s="13"/>
       <c r="AY183" s="13"/>
     </row>
-    <row r="184" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="184" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S184" s="13"/>
       <c r="T184" s="13"/>
       <c r="U184" s="13"/>
@@ -62765,7 +62821,7 @@
       <c r="AX184" s="13"/>
       <c r="AY184" s="13"/>
     </row>
-    <row r="185" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="185" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S185" s="13"/>
       <c r="T185" s="13"/>
       <c r="U185" s="13"/>
@@ -62800,7 +62856,7 @@
       <c r="AX185" s="13"/>
       <c r="AY185" s="13"/>
     </row>
-    <row r="186" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="186" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S186" s="13"/>
       <c r="T186" s="13"/>
       <c r="U186" s="13"/>
@@ -62835,7 +62891,7 @@
       <c r="AX186" s="13"/>
       <c r="AY186" s="13"/>
     </row>
-    <row r="187" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="187" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S187" s="13"/>
       <c r="T187" s="13"/>
       <c r="U187" s="13"/>
@@ -62870,7 +62926,7 @@
       <c r="AX187" s="13"/>
       <c r="AY187" s="13"/>
     </row>
-    <row r="188" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="188" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S188" s="13"/>
       <c r="T188" s="13"/>
       <c r="U188" s="13"/>
@@ -62905,7 +62961,7 @@
       <c r="AX188" s="13"/>
       <c r="AY188" s="13"/>
     </row>
-    <row r="189" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="189" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S189" s="13"/>
       <c r="T189" s="13"/>
       <c r="U189" s="13"/>
@@ -62940,7 +62996,7 @@
       <c r="AX189" s="13"/>
       <c r="AY189" s="13"/>
     </row>
-    <row r="190" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="190" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S190" s="13"/>
       <c r="T190" s="13"/>
       <c r="U190" s="13"/>
@@ -62975,7 +63031,7 @@
       <c r="AX190" s="13"/>
       <c r="AY190" s="13"/>
     </row>
-    <row r="191" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="191" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S191" s="13"/>
       <c r="T191" s="13"/>
       <c r="U191" s="13"/>
@@ -63010,7 +63066,7 @@
       <c r="AX191" s="13"/>
       <c r="AY191" s="13"/>
     </row>
-    <row r="192" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="192" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S192" s="13"/>
       <c r="T192" s="13"/>
       <c r="U192" s="13"/>
@@ -63045,7 +63101,7 @@
       <c r="AX192" s="13"/>
       <c r="AY192" s="13"/>
     </row>
-    <row r="193" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="193" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S193" s="13"/>
       <c r="T193" s="13"/>
       <c r="U193" s="13"/>
@@ -63080,7 +63136,7 @@
       <c r="AX193" s="13"/>
       <c r="AY193" s="13"/>
     </row>
-    <row r="194" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="194" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S194" s="13"/>
       <c r="T194" s="13"/>
       <c r="U194" s="13"/>
@@ -63115,7 +63171,7 @@
       <c r="AX194" s="13"/>
       <c r="AY194" s="13"/>
     </row>
-    <row r="195" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="195" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S195" s="13"/>
       <c r="T195" s="13"/>
       <c r="U195" s="13"/>
@@ -63150,7 +63206,7 @@
       <c r="AX195" s="13"/>
       <c r="AY195" s="13"/>
     </row>
-    <row r="196" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="196" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S196" s="13"/>
       <c r="T196" s="13"/>
       <c r="U196" s="13"/>
@@ -63185,7 +63241,7 @@
       <c r="AX196" s="13"/>
       <c r="AY196" s="13"/>
     </row>
-    <row r="197" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="197" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S197" s="13"/>
       <c r="T197" s="13"/>
       <c r="U197" s="13"/>
@@ -63220,7 +63276,7 @@
       <c r="AX197" s="13"/>
       <c r="AY197" s="13"/>
     </row>
-    <row r="198" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="198" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S198" s="13"/>
       <c r="T198" s="13"/>
       <c r="U198" s="13"/>
@@ -63255,7 +63311,7 @@
       <c r="AX198" s="13"/>
       <c r="AY198" s="13"/>
     </row>
-    <row r="199" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="199" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S199" s="13"/>
       <c r="T199" s="13"/>
       <c r="U199" s="13"/>
@@ -63290,7 +63346,7 @@
       <c r="AX199" s="13"/>
       <c r="AY199" s="13"/>
     </row>
-    <row r="200" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="200" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S200" s="13"/>
       <c r="T200" s="13"/>
       <c r="U200" s="13"/>
@@ -63325,7 +63381,7 @@
       <c r="AX200" s="13"/>
       <c r="AY200" s="13"/>
     </row>
-    <row r="201" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="201" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S201" s="13"/>
       <c r="T201" s="13"/>
       <c r="U201" s="13"/>
@@ -63360,7 +63416,7 @@
       <c r="AX201" s="13"/>
       <c r="AY201" s="13"/>
     </row>
-    <row r="202" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="202" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S202" s="13"/>
       <c r="T202" s="13"/>
       <c r="U202" s="13"/>
@@ -63395,7 +63451,7 @@
       <c r="AX202" s="13"/>
       <c r="AY202" s="13"/>
     </row>
-    <row r="203" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="203" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S203" s="13"/>
       <c r="T203" s="13"/>
       <c r="U203" s="13"/>
@@ -63430,7 +63486,7 @@
       <c r="AX203" s="13"/>
       <c r="AY203" s="13"/>
     </row>
-    <row r="204" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="204" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S204" s="13"/>
       <c r="T204" s="13"/>
       <c r="U204" s="13"/>
@@ -63484,19 +63540,19 @@
       <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="15" width="2.58203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.58203125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="2.58203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="2.58203125" style="6" customWidth="1"/>
-    <col min="19" max="51" width="2.58203125" style="10" customWidth="1"/>
-    <col min="52" max="67" width="2.58203125" style="11" customWidth="1"/>
-    <col min="68" max="16384" width="2.58203125" style="2"/>
+    <col min="2" max="15" width="2.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="6" customWidth="1"/>
+    <col min="19" max="51" width="2.625" style="10" customWidth="1"/>
+    <col min="52" max="67" width="2.625" style="11" customWidth="1"/>
+    <col min="68" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -63695,7 +63751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -63767,7 +63823,7 @@
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
     </row>
-    <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>19076</v>
       </c>
@@ -63867,7 +63923,7 @@
       <c r="BN3" s="9"/>
       <c r="BO3" s="9"/>
     </row>
-    <row r="4" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -63971,7 +64027,7 @@
       <c r="BN4" s="9"/>
       <c r="BO4" s="9"/>
     </row>
-    <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>19077</v>
       </c>
@@ -64042,7 +64098,7 @@
       <c r="BN5" s="9"/>
       <c r="BO5" s="9"/>
     </row>
-    <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -64111,7 +64167,7 @@
       <c r="BN6" s="9"/>
       <c r="BO6" s="9"/>
     </row>
-    <row r="7" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -64180,7 +64236,7 @@
       <c r="BN7" s="9"/>
       <c r="BO7" s="9"/>
     </row>
-    <row r="8" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -64249,7 +64305,7 @@
       <c r="BN8" s="9"/>
       <c r="BO8" s="9"/>
     </row>
-    <row r="9" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -64318,7 +64374,7 @@
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
     </row>
-    <row r="10" spans="1:67" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -64387,7 +64443,7 @@
       <c r="BN10" s="9"/>
       <c r="BO10" s="9"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -64456,7 +64512,7 @@
       <c r="BN11" s="9"/>
       <c r="BO11" s="9"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -64525,7 +64581,7 @@
       <c r="BN12" s="9"/>
       <c r="BO12" s="9"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -64594,7 +64650,7 @@
       <c r="BN13" s="9"/>
       <c r="BO13" s="9"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -64663,7 +64719,7 @@
       <c r="BN14" s="9"/>
       <c r="BO14" s="9"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -64698,7 +64754,7 @@
       <c r="AX15" s="13"/>
       <c r="AY15" s="13"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -64733,7 +64789,7 @@
       <c r="AX16" s="13"/>
       <c r="AY16" s="13"/>
     </row>
-    <row r="17" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -64768,7 +64824,7 @@
       <c r="AX17" s="13"/>
       <c r="AY17" s="13"/>
     </row>
-    <row r="18" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -64803,7 +64859,7 @@
       <c r="AX18" s="13"/>
       <c r="AY18" s="13"/>
     </row>
-    <row r="19" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -64838,7 +64894,7 @@
       <c r="AX19" s="13"/>
       <c r="AY19" s="13"/>
     </row>
-    <row r="20" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -64873,7 +64929,7 @@
       <c r="AX20" s="13"/>
       <c r="AY20" s="13"/>
     </row>
-    <row r="21" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -64908,7 +64964,7 @@
       <c r="AX21" s="13"/>
       <c r="AY21" s="13"/>
     </row>
-    <row r="22" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -64943,7 +64999,7 @@
       <c r="AX22" s="13"/>
       <c r="AY22" s="13"/>
     </row>
-    <row r="23" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -64978,7 +65034,7 @@
       <c r="AX23" s="13"/>
       <c r="AY23" s="13"/>
     </row>
-    <row r="24" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -65013,7 +65069,7 @@
       <c r="AX24" s="13"/>
       <c r="AY24" s="13"/>
     </row>
-    <row r="25" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -65048,7 +65104,7 @@
       <c r="AX25" s="13"/>
       <c r="AY25" s="13"/>
     </row>
-    <row r="26" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -65083,7 +65139,7 @@
       <c r="AX26" s="13"/>
       <c r="AY26" s="13"/>
     </row>
-    <row r="27" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
@@ -65118,7 +65174,7 @@
       <c r="AX27" s="13"/>
       <c r="AY27" s="13"/>
     </row>
-    <row r="28" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
@@ -65153,7 +65209,7 @@
       <c r="AX28" s="13"/>
       <c r="AY28" s="13"/>
     </row>
-    <row r="29" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
@@ -65188,7 +65244,7 @@
       <c r="AX29" s="13"/>
       <c r="AY29" s="13"/>
     </row>
-    <row r="30" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
@@ -65223,7 +65279,7 @@
       <c r="AX30" s="13"/>
       <c r="AY30" s="13"/>
     </row>
-    <row r="31" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
@@ -65258,7 +65314,7 @@
       <c r="AX31" s="13"/>
       <c r="AY31" s="13"/>
     </row>
-    <row r="32" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
@@ -65293,7 +65349,7 @@
       <c r="AX32" s="13"/>
       <c r="AY32" s="13"/>
     </row>
-    <row r="33" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
@@ -65328,7 +65384,7 @@
       <c r="AX33" s="13"/>
       <c r="AY33" s="13"/>
     </row>
-    <row r="34" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
@@ -65363,7 +65419,7 @@
       <c r="AX34" s="13"/>
       <c r="AY34" s="13"/>
     </row>
-    <row r="35" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
@@ -65398,7 +65454,7 @@
       <c r="AX35" s="13"/>
       <c r="AY35" s="13"/>
     </row>
-    <row r="36" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
@@ -65433,7 +65489,7 @@
       <c r="AX36" s="13"/>
       <c r="AY36" s="13"/>
     </row>
-    <row r="37" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
@@ -65468,7 +65524,7 @@
       <c r="AX37" s="13"/>
       <c r="AY37" s="13"/>
     </row>
-    <row r="38" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
@@ -65503,7 +65559,7 @@
       <c r="AX38" s="13"/>
       <c r="AY38" s="13"/>
     </row>
-    <row r="39" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
@@ -65538,7 +65594,7 @@
       <c r="AX39" s="13"/>
       <c r="AY39" s="13"/>
     </row>
-    <row r="40" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
@@ -65573,7 +65629,7 @@
       <c r="AX40" s="13"/>
       <c r="AY40" s="13"/>
     </row>
-    <row r="41" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="41" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -65608,7 +65664,7 @@
       <c r="AX41" s="13"/>
       <c r="AY41" s="13"/>
     </row>
-    <row r="42" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="42" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
@@ -65643,7 +65699,7 @@
       <c r="AX42" s="13"/>
       <c r="AY42" s="13"/>
     </row>
-    <row r="43" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
@@ -65678,7 +65734,7 @@
       <c r="AX43" s="13"/>
       <c r="AY43" s="13"/>
     </row>
-    <row r="44" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="44" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
@@ -65713,7 +65769,7 @@
       <c r="AX44" s="13"/>
       <c r="AY44" s="13"/>
     </row>
-    <row r="45" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="45" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -65748,7 +65804,7 @@
       <c r="AX45" s="13"/>
       <c r="AY45" s="13"/>
     </row>
-    <row r="46" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="46" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
@@ -65783,7 +65839,7 @@
       <c r="AX46" s="13"/>
       <c r="AY46" s="13"/>
     </row>
-    <row r="47" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
@@ -65818,7 +65874,7 @@
       <c r="AX47" s="13"/>
       <c r="AY47" s="13"/>
     </row>
-    <row r="48" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -65853,7 +65909,7 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
     </row>
-    <row r="49" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="49" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
@@ -65888,7 +65944,7 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
     </row>
-    <row r="50" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="50" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
@@ -65923,7 +65979,7 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
     </row>
-    <row r="51" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="51" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
@@ -65958,7 +66014,7 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
     </row>
-    <row r="52" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="52" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
@@ -65993,7 +66049,7 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
     </row>
-    <row r="53" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="53" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
@@ -66028,7 +66084,7 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
     </row>
-    <row r="54" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="54" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
@@ -66063,7 +66119,7 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
     </row>
-    <row r="55" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="55" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
@@ -66098,7 +66154,7 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
     </row>
-    <row r="56" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="56" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
@@ -66133,7 +66189,7 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
     </row>
-    <row r="57" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="57" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
@@ -66168,7 +66224,7 @@
       <c r="AX57" s="13"/>
       <c r="AY57" s="13"/>
     </row>
-    <row r="58" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="58" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
@@ -66203,7 +66259,7 @@
       <c r="AX58" s="13"/>
       <c r="AY58" s="13"/>
     </row>
-    <row r="59" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="59" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
@@ -66238,7 +66294,7 @@
       <c r="AX59" s="13"/>
       <c r="AY59" s="13"/>
     </row>
-    <row r="60" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="60" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
@@ -66273,7 +66329,7 @@
       <c r="AX60" s="13"/>
       <c r="AY60" s="13"/>
     </row>
-    <row r="61" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="61" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
@@ -66308,7 +66364,7 @@
       <c r="AX61" s="13"/>
       <c r="AY61" s="13"/>
     </row>
-    <row r="62" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="62" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
@@ -66343,7 +66399,7 @@
       <c r="AX62" s="13"/>
       <c r="AY62" s="13"/>
     </row>
-    <row r="63" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="63" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
       <c r="U63" s="13"/>
@@ -66378,7 +66434,7 @@
       <c r="AX63" s="13"/>
       <c r="AY63" s="13"/>
     </row>
-    <row r="64" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="64" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
@@ -66413,7 +66469,7 @@
       <c r="AX64" s="13"/>
       <c r="AY64" s="13"/>
     </row>
-    <row r="65" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="65" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
@@ -66448,7 +66504,7 @@
       <c r="AX65" s="13"/>
       <c r="AY65" s="13"/>
     </row>
-    <row r="66" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="66" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
@@ -66483,7 +66539,7 @@
       <c r="AX66" s="13"/>
       <c r="AY66" s="13"/>
     </row>
-    <row r="67" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="67" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
       <c r="U67" s="13"/>
@@ -66518,7 +66574,7 @@
       <c r="AX67" s="13"/>
       <c r="AY67" s="13"/>
     </row>
-    <row r="68" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="68" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
       <c r="U68" s="13"/>
@@ -66553,7 +66609,7 @@
       <c r="AX68" s="13"/>
       <c r="AY68" s="13"/>
     </row>
-    <row r="69" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="69" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
       <c r="U69" s="13"/>
@@ -66588,7 +66644,7 @@
       <c r="AX69" s="13"/>
       <c r="AY69" s="13"/>
     </row>
-    <row r="70" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="70" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
       <c r="U70" s="13"/>
@@ -66623,7 +66679,7 @@
       <c r="AX70" s="13"/>
       <c r="AY70" s="13"/>
     </row>
-    <row r="71" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="71" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
       <c r="U71" s="13"/>
@@ -66658,7 +66714,7 @@
       <c r="AX71" s="13"/>
       <c r="AY71" s="13"/>
     </row>
-    <row r="72" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="72" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
       <c r="U72" s="13"/>
@@ -66693,7 +66749,7 @@
       <c r="AX72" s="13"/>
       <c r="AY72" s="13"/>
     </row>
-    <row r="73" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="73" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
       <c r="U73" s="13"/>
@@ -66728,7 +66784,7 @@
       <c r="AX73" s="13"/>
       <c r="AY73" s="13"/>
     </row>
-    <row r="74" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="74" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
       <c r="U74" s="13"/>
@@ -66763,7 +66819,7 @@
       <c r="AX74" s="13"/>
       <c r="AY74" s="13"/>
     </row>
-    <row r="75" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="75" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
       <c r="U75" s="13"/>
@@ -66798,7 +66854,7 @@
       <c r="AX75" s="13"/>
       <c r="AY75" s="13"/>
     </row>
-    <row r="76" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="76" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
       <c r="U76" s="13"/>
@@ -66833,7 +66889,7 @@
       <c r="AX76" s="13"/>
       <c r="AY76" s="13"/>
     </row>
-    <row r="77" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="77" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
       <c r="U77" s="13"/>
@@ -66868,7 +66924,7 @@
       <c r="AX77" s="13"/>
       <c r="AY77" s="13"/>
     </row>
-    <row r="78" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="78" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
       <c r="U78" s="13"/>
@@ -66903,7 +66959,7 @@
       <c r="AX78" s="13"/>
       <c r="AY78" s="13"/>
     </row>
-    <row r="79" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="79" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
       <c r="U79" s="13"/>
@@ -66938,7 +66994,7 @@
       <c r="AX79" s="13"/>
       <c r="AY79" s="13"/>
     </row>
-    <row r="80" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="80" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
       <c r="U80" s="13"/>
@@ -66973,7 +67029,7 @@
       <c r="AX80" s="13"/>
       <c r="AY80" s="13"/>
     </row>
-    <row r="81" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="81" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S81" s="13"/>
       <c r="T81" s="13"/>
       <c r="U81" s="13"/>
@@ -67008,7 +67064,7 @@
       <c r="AX81" s="13"/>
       <c r="AY81" s="13"/>
     </row>
-    <row r="82" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="82" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
       <c r="U82" s="13"/>
@@ -67043,7 +67099,7 @@
       <c r="AX82" s="13"/>
       <c r="AY82" s="13"/>
     </row>
-    <row r="83" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="83" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
       <c r="U83" s="13"/>
@@ -67078,7 +67134,7 @@
       <c r="AX83" s="13"/>
       <c r="AY83" s="13"/>
     </row>
-    <row r="84" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="84" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
       <c r="U84" s="13"/>
@@ -67113,7 +67169,7 @@
       <c r="AX84" s="13"/>
       <c r="AY84" s="13"/>
     </row>
-    <row r="85" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="85" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
       <c r="U85" s="13"/>
@@ -67148,7 +67204,7 @@
       <c r="AX85" s="13"/>
       <c r="AY85" s="13"/>
     </row>
-    <row r="86" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="86" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S86" s="13"/>
       <c r="T86" s="13"/>
       <c r="U86" s="13"/>
@@ -67183,7 +67239,7 @@
       <c r="AX86" s="13"/>
       <c r="AY86" s="13"/>
     </row>
-    <row r="87" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="87" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S87" s="13"/>
       <c r="T87" s="13"/>
       <c r="U87" s="13"/>
@@ -67218,7 +67274,7 @@
       <c r="AX87" s="13"/>
       <c r="AY87" s="13"/>
     </row>
-    <row r="88" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="88" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S88" s="13"/>
       <c r="T88" s="13"/>
       <c r="U88" s="13"/>
@@ -67253,7 +67309,7 @@
       <c r="AX88" s="13"/>
       <c r="AY88" s="13"/>
     </row>
-    <row r="89" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="89" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
       <c r="U89" s="13"/>
@@ -67288,7 +67344,7 @@
       <c r="AX89" s="13"/>
       <c r="AY89" s="13"/>
     </row>
-    <row r="90" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="90" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S90" s="13"/>
       <c r="T90" s="13"/>
       <c r="U90" s="13"/>
@@ -67323,7 +67379,7 @@
       <c r="AX90" s="13"/>
       <c r="AY90" s="13"/>
     </row>
-    <row r="91" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="91" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S91" s="13"/>
       <c r="T91" s="13"/>
       <c r="U91" s="13"/>
@@ -67358,7 +67414,7 @@
       <c r="AX91" s="13"/>
       <c r="AY91" s="13"/>
     </row>
-    <row r="92" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="92" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S92" s="13"/>
       <c r="T92" s="13"/>
       <c r="U92" s="13"/>
@@ -67393,7 +67449,7 @@
       <c r="AX92" s="13"/>
       <c r="AY92" s="13"/>
     </row>
-    <row r="93" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="93" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S93" s="13"/>
       <c r="T93" s="13"/>
       <c r="U93" s="13"/>
@@ -67428,7 +67484,7 @@
       <c r="AX93" s="13"/>
       <c r="AY93" s="13"/>
     </row>
-    <row r="94" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="94" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
       <c r="U94" s="13"/>
@@ -67463,7 +67519,7 @@
       <c r="AX94" s="13"/>
       <c r="AY94" s="13"/>
     </row>
-    <row r="95" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="95" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S95" s="13"/>
       <c r="T95" s="13"/>
       <c r="U95" s="13"/>
@@ -67498,7 +67554,7 @@
       <c r="AX95" s="13"/>
       <c r="AY95" s="13"/>
     </row>
-    <row r="96" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="96" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S96" s="13"/>
       <c r="T96" s="13"/>
       <c r="U96" s="13"/>
@@ -67533,7 +67589,7 @@
       <c r="AX96" s="13"/>
       <c r="AY96" s="13"/>
     </row>
-    <row r="97" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="97" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
       <c r="U97" s="13"/>
@@ -67568,7 +67624,7 @@
       <c r="AX97" s="13"/>
       <c r="AY97" s="13"/>
     </row>
-    <row r="98" spans="19:51" x14ac:dyDescent="0.3">
+    <row r="98" spans="19:51" x14ac:dyDescent="0.2">
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
       <c r="U98" s="13"/>
@@ -67619,9 +67675,9 @@
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="32:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="32:32" x14ac:dyDescent="0.2">
       <c r="AF3" t="s">
         <v>17</v>
       </c>
@@ -67641,7 +67697,7 @@
       <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -67653,11 +67709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476A4BAB-A406-4C9B-9335-067736290EBD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AE45" sqref="AE45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
